--- a/Resources/Sea_Ice_Index_Monthly_Data_by_Year_G02135_v3.0.xlsx
+++ b/Resources/Sea_Ice_Index_Monthly_Data_by_Year_G02135_v3.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericH/Desktop/ETL-Project/Resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A4050-0DAD-004C-9079-DAB02E5E6EF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NH-Extent" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="SH-Area" sheetId="4" r:id="rId4"/>
     <sheet name="Documentation" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>January</t>
   </si>
@@ -124,15 +130,18 @@
   <si>
     <t>should read "Credit: Sea Ice Index, National Snow and Ice Data Center."</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +231,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -268,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,9 +317,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,6 +369,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,14 +562,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1978</v>
       </c>
@@ -572,7 +630,7 @@
         <v>12.673</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1979</v>
       </c>
@@ -580,16 +638,16 @@
         <v>15.414</v>
       </c>
       <c r="C3">
-        <v>16.175</v>
+        <v>16.175000000000001</v>
       </c>
       <c r="D3">
-        <v>16.342</v>
+        <v>16.341999999999999</v>
       </c>
       <c r="E3">
-        <v>15.447</v>
+        <v>15.446999999999999</v>
       </c>
       <c r="F3">
-        <v>13.857</v>
+        <v>13.856999999999999</v>
       </c>
       <c r="G3">
         <v>12.53</v>
@@ -598,13 +656,13 @@
         <v>10.311</v>
       </c>
       <c r="I3">
-        <v>8.041</v>
+        <v>8.0410000000000004</v>
       </c>
       <c r="J3">
-        <v>7.051</v>
+        <v>7.0510000000000002</v>
       </c>
       <c r="K3">
-        <v>8.747999999999999</v>
+        <v>8.7479999999999993</v>
       </c>
       <c r="L3">
         <v>10.943</v>
@@ -613,10 +671,10 @@
         <v>13.336</v>
       </c>
       <c r="O3">
-        <v>12.328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.327999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1980</v>
       </c>
@@ -633,7 +691,7 @@
         <v>15.429</v>
       </c>
       <c r="F4">
-        <v>13.793</v>
+        <v>13.792999999999999</v>
       </c>
       <c r="G4">
         <v>12.205</v>
@@ -645,13 +703,13 @@
         <v>7.984</v>
       </c>
       <c r="J4">
-        <v>7.667</v>
+        <v>7.6669999999999998</v>
       </c>
       <c r="K4">
-        <v>9.183</v>
+        <v>9.1829999999999998</v>
       </c>
       <c r="L4">
-        <v>11.383</v>
+        <v>11.382999999999999</v>
       </c>
       <c r="M4">
         <v>13.593</v>
@@ -660,7 +718,7 @@
         <v>12.337</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1981</v>
       </c>
@@ -668,7 +726,7 @@
         <v>14.91</v>
       </c>
       <c r="C5">
-        <v>15.604</v>
+        <v>15.603999999999999</v>
       </c>
       <c r="D5">
         <v>15.632</v>
@@ -683,28 +741,28 @@
         <v>12.43</v>
       </c>
       <c r="H5">
-        <v>10.271</v>
+        <v>10.271000000000001</v>
       </c>
       <c r="I5">
-        <v>7.844</v>
+        <v>7.8440000000000003</v>
       </c>
       <c r="J5">
-        <v>7.138</v>
+        <v>7.1379999999999999</v>
       </c>
       <c r="K5">
-        <v>8.856</v>
+        <v>8.8559999999999999</v>
       </c>
       <c r="L5">
         <v>10.929</v>
       </c>
       <c r="M5">
-        <v>13.341</v>
+        <v>13.340999999999999</v>
       </c>
       <c r="O5">
-        <v>12.127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.127000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1982</v>
       </c>
@@ -718,37 +776,37 @@
         <v>16.044</v>
       </c>
       <c r="E6">
-        <v>15.466</v>
+        <v>15.465999999999999</v>
       </c>
       <c r="F6">
-        <v>13.973</v>
+        <v>13.973000000000001</v>
       </c>
       <c r="G6">
-        <v>12.476</v>
+        <v>12.476000000000001</v>
       </c>
       <c r="H6">
-        <v>10.367</v>
+        <v>10.367000000000001</v>
       </c>
       <c r="I6">
-        <v>8.138999999999999</v>
+        <v>8.1389999999999993</v>
       </c>
       <c r="J6">
-        <v>7.302</v>
+        <v>7.3019999999999996</v>
       </c>
       <c r="K6">
-        <v>9.420999999999999</v>
+        <v>9.4209999999999994</v>
       </c>
       <c r="L6">
-        <v>11.627</v>
+        <v>11.627000000000001</v>
       </c>
       <c r="M6">
-        <v>13.642</v>
+        <v>13.641999999999999</v>
       </c>
       <c r="O6">
-        <v>12.447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.446999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1983</v>
       </c>
@@ -759,84 +817,84 @@
         <v>16.006</v>
       </c>
       <c r="D7">
-        <v>16.085</v>
+        <v>16.085000000000001</v>
       </c>
       <c r="E7">
-        <v>15.172</v>
+        <v>15.172000000000001</v>
       </c>
       <c r="F7">
         <v>13.491</v>
       </c>
       <c r="G7">
-        <v>12.296</v>
+        <v>12.295999999999999</v>
       </c>
       <c r="H7">
         <v>10.57</v>
       </c>
       <c r="I7">
-        <v>8.186</v>
+        <v>8.1859999999999999</v>
       </c>
       <c r="J7">
-        <v>7.395</v>
+        <v>7.3949999999999996</v>
       </c>
       <c r="K7">
-        <v>9.334</v>
+        <v>9.3339999999999996</v>
       </c>
       <c r="L7">
         <v>11.461</v>
       </c>
       <c r="M7">
-        <v>13.299</v>
+        <v>13.298999999999999</v>
       </c>
       <c r="O7">
-        <v>12.332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.332000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1984</v>
       </c>
       <c r="B8">
-        <v>14.473</v>
+        <v>14.473000000000001</v>
       </c>
       <c r="C8">
-        <v>15.299</v>
+        <v>15.298999999999999</v>
       </c>
       <c r="D8">
         <v>15.584</v>
       </c>
       <c r="E8">
-        <v>15.015</v>
+        <v>15.015000000000001</v>
       </c>
       <c r="F8">
         <v>13.577</v>
       </c>
       <c r="G8">
-        <v>12.152</v>
+        <v>12.151999999999999</v>
       </c>
       <c r="H8">
-        <v>9.977</v>
+        <v>9.9770000000000003</v>
       </c>
       <c r="I8">
-        <v>7.771</v>
+        <v>7.7709999999999999</v>
       </c>
       <c r="J8">
-        <v>6.805</v>
+        <v>6.8049999999999997</v>
       </c>
       <c r="K8">
-        <v>8.561</v>
+        <v>8.5609999999999999</v>
       </c>
       <c r="L8">
-        <v>10.842</v>
+        <v>10.842000000000001</v>
       </c>
       <c r="M8">
-        <v>12.989</v>
+        <v>12.989000000000001</v>
       </c>
       <c r="O8">
         <v>11.91</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1985</v>
       </c>
@@ -844,31 +902,31 @@
         <v>14.725</v>
       </c>
       <c r="C9">
-        <v>15.466</v>
+        <v>15.465999999999999</v>
       </c>
       <c r="D9">
-        <v>15.886</v>
+        <v>15.885999999999999</v>
       </c>
       <c r="E9">
-        <v>15.357</v>
+        <v>15.356999999999999</v>
       </c>
       <c r="F9">
         <v>14.073</v>
       </c>
       <c r="G9">
-        <v>12.219</v>
+        <v>12.218999999999999</v>
       </c>
       <c r="H9">
-        <v>9.744</v>
+        <v>9.7439999999999998</v>
       </c>
       <c r="I9">
-        <v>7.402</v>
+        <v>7.4020000000000001</v>
       </c>
       <c r="J9">
-        <v>6.698</v>
+        <v>6.6980000000000004</v>
       </c>
       <c r="K9">
-        <v>8.545999999999999</v>
+        <v>8.5459999999999994</v>
       </c>
       <c r="L9">
         <v>11.025</v>
@@ -877,10 +935,10 @@
         <v>13.05</v>
       </c>
       <c r="O9">
-        <v>11.995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.994999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1986</v>
       </c>
@@ -894,37 +952,37 @@
         <v>15.91</v>
       </c>
       <c r="E10">
-        <v>15.059</v>
+        <v>15.058999999999999</v>
       </c>
       <c r="F10">
         <v>13.379</v>
       </c>
       <c r="G10">
-        <v>11.976</v>
+        <v>11.976000000000001</v>
       </c>
       <c r="H10">
-        <v>10.146</v>
+        <v>10.146000000000001</v>
       </c>
       <c r="I10">
-        <v>7.979</v>
+        <v>7.9790000000000001</v>
       </c>
       <c r="J10">
-        <v>7.411</v>
+        <v>7.4109999999999996</v>
       </c>
       <c r="K10">
         <v>9.484</v>
       </c>
       <c r="L10">
-        <v>11.453</v>
+        <v>11.452999999999999</v>
       </c>
       <c r="M10">
         <v>13.222</v>
       </c>
       <c r="O10">
-        <v>12.203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12.202999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1987</v>
       </c>
@@ -935,7 +993,7 @@
         <v>16.05</v>
       </c>
       <c r="D11">
-        <v>15.816</v>
+        <v>15.816000000000001</v>
       </c>
       <c r="E11">
         <v>15.211</v>
@@ -944,19 +1002,19 @@
         <v>13.743</v>
       </c>
       <c r="G11">
-        <v>12.486</v>
+        <v>12.486000000000001</v>
       </c>
       <c r="H11">
         <v>10.333</v>
       </c>
       <c r="I11">
-        <v>7.628</v>
+        <v>7.6280000000000001</v>
       </c>
       <c r="J11">
-        <v>7.279</v>
+        <v>7.2789999999999999</v>
       </c>
       <c r="K11">
-        <v>9.048999999999999</v>
+        <v>9.0489999999999995</v>
       </c>
       <c r="L11">
         <v>11.224</v>
@@ -965,7 +1023,7 @@
         <v>12.135</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1988</v>
       </c>
@@ -973,10 +1031,10 @@
         <v>15.583</v>
       </c>
       <c r="D12">
-        <v>15.957</v>
+        <v>15.957000000000001</v>
       </c>
       <c r="E12">
-        <v>15.123</v>
+        <v>15.122999999999999</v>
       </c>
       <c r="F12">
         <v>13.561</v>
@@ -985,28 +1043,28 @@
         <v>11.943</v>
       </c>
       <c r="H12">
-        <v>9.808999999999999</v>
+        <v>9.8089999999999993</v>
       </c>
       <c r="I12">
-        <v>7.892</v>
+        <v>7.8920000000000003</v>
       </c>
       <c r="J12">
-        <v>7.369</v>
+        <v>7.3689999999999998</v>
       </c>
       <c r="K12">
-        <v>9.135</v>
+        <v>9.1349999999999998</v>
       </c>
       <c r="L12">
         <v>11.331</v>
       </c>
       <c r="M12">
-        <v>13.626</v>
+        <v>13.625999999999999</v>
       </c>
       <c r="O12" s="2">
         <v>11.923</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1989</v>
       </c>
@@ -1014,31 +1072,31 @@
         <v>14.955</v>
       </c>
       <c r="C13">
-        <v>15.495</v>
+        <v>15.494999999999999</v>
       </c>
       <c r="D13">
         <v>15.423</v>
       </c>
       <c r="E13">
-        <v>14.328</v>
+        <v>14.327999999999999</v>
       </c>
       <c r="F13">
         <v>13.044</v>
       </c>
       <c r="G13">
-        <v>12.245</v>
+        <v>12.244999999999999</v>
       </c>
       <c r="H13">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="I13">
-        <v>7.882</v>
+        <v>7.8819999999999997</v>
       </c>
       <c r="J13">
         <v>7.008</v>
       </c>
       <c r="K13">
-        <v>8.829000000000001</v>
+        <v>8.8290000000000006</v>
       </c>
       <c r="L13">
         <v>11.115</v>
@@ -1047,62 +1105,62 @@
         <v>13.387</v>
       </c>
       <c r="O13">
-        <v>11.967</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.967000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1990</v>
       </c>
       <c r="B14">
-        <v>14.783</v>
+        <v>14.782999999999999</v>
       </c>
       <c r="C14">
-        <v>15.578</v>
+        <v>15.577999999999999</v>
       </c>
       <c r="D14">
-        <v>15.867</v>
+        <v>15.867000000000001</v>
       </c>
       <c r="E14">
         <v>14.65</v>
       </c>
       <c r="F14">
-        <v>13.226</v>
+        <v>13.226000000000001</v>
       </c>
       <c r="G14">
         <v>11.641</v>
       </c>
       <c r="H14">
-        <v>9.247</v>
+        <v>9.2469999999999999</v>
       </c>
       <c r="I14">
-        <v>6.797</v>
+        <v>6.7969999999999997</v>
       </c>
       <c r="J14">
-        <v>6.143</v>
+        <v>6.1429999999999998</v>
       </c>
       <c r="K14">
-        <v>8.484999999999999</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="L14">
-        <v>11.075</v>
+        <v>11.074999999999999</v>
       </c>
       <c r="M14">
         <v>13.106</v>
       </c>
       <c r="O14">
-        <v>11.694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.694000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1991</v>
       </c>
       <c r="B15">
-        <v>14.364</v>
+        <v>14.364000000000001</v>
       </c>
       <c r="C15">
-        <v>15.249</v>
+        <v>15.249000000000001</v>
       </c>
       <c r="D15">
         <v>15.416</v>
@@ -1111,22 +1169,22 @@
         <v>14.86</v>
       </c>
       <c r="F15">
-        <v>13.473</v>
+        <v>13.473000000000001</v>
       </c>
       <c r="G15">
-        <v>12.108</v>
+        <v>12.108000000000001</v>
       </c>
       <c r="H15">
-        <v>9.513999999999999</v>
+        <v>9.5139999999999993</v>
       </c>
       <c r="I15">
         <v>7.415</v>
       </c>
       <c r="J15">
-        <v>6.473</v>
+        <v>6.4729999999999999</v>
       </c>
       <c r="K15">
-        <v>8.541</v>
+        <v>8.5410000000000004</v>
       </c>
       <c r="L15">
         <v>10.885</v>
@@ -1135,15 +1193,15 @@
         <v>12.945</v>
       </c>
       <c r="O15">
-        <v>11.749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.749000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1992</v>
       </c>
       <c r="B16">
-        <v>14.643</v>
+        <v>14.643000000000001</v>
       </c>
       <c r="C16">
         <v>15.462</v>
@@ -1155,7 +1213,7 @@
         <v>14.677</v>
       </c>
       <c r="F16">
-        <v>13.216</v>
+        <v>13.215999999999999</v>
       </c>
       <c r="G16">
         <v>12.147</v>
@@ -1164,13 +1222,13 @@
         <v>10.323</v>
       </c>
       <c r="I16">
-        <v>7.925</v>
+        <v>7.9249999999999998</v>
       </c>
       <c r="J16">
-        <v>7.474</v>
+        <v>7.4740000000000002</v>
       </c>
       <c r="K16">
-        <v>9.319000000000001</v>
+        <v>9.3190000000000008</v>
       </c>
       <c r="L16">
         <v>11.379</v>
@@ -1182,18 +1240,18 @@
         <v>12.11</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1993</v>
       </c>
       <c r="B17">
-        <v>14.896</v>
+        <v>14.896000000000001</v>
       </c>
       <c r="C17">
         <v>15.686</v>
       </c>
       <c r="D17">
-        <v>15.813</v>
+        <v>15.813000000000001</v>
       </c>
       <c r="E17">
         <v>15.077</v>
@@ -1205,28 +1263,28 @@
         <v>11.871</v>
       </c>
       <c r="H17">
-        <v>9.476000000000001</v>
+        <v>9.4760000000000009</v>
       </c>
       <c r="I17">
         <v>7.335</v>
       </c>
       <c r="J17">
-        <v>6.397</v>
+        <v>6.3970000000000002</v>
       </c>
       <c r="K17">
-        <v>8.786</v>
+        <v>8.7859999999999996</v>
       </c>
       <c r="L17">
-        <v>11.319</v>
+        <v>11.319000000000001</v>
       </c>
       <c r="M17">
-        <v>13.319</v>
+        <v>13.319000000000001</v>
       </c>
       <c r="O17">
         <v>11.923</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1994</v>
       </c>
@@ -1234,7 +1292,7 @@
         <v>14.73</v>
       </c>
       <c r="C18">
-        <v>15.562</v>
+        <v>15.561999999999999</v>
       </c>
       <c r="D18">
         <v>15.554</v>
@@ -1243,34 +1301,34 @@
         <v>14.888</v>
       </c>
       <c r="F18">
-        <v>13.624</v>
+        <v>13.624000000000001</v>
       </c>
       <c r="G18">
         <v>12.016</v>
       </c>
       <c r="H18">
-        <v>9.925000000000001</v>
+        <v>9.9250000000000007</v>
       </c>
       <c r="I18">
-        <v>7.639</v>
+        <v>7.6390000000000002</v>
       </c>
       <c r="J18">
-        <v>7.138</v>
+        <v>7.1379999999999999</v>
       </c>
       <c r="K18">
-        <v>8.914999999999999</v>
+        <v>8.9149999999999991</v>
       </c>
       <c r="L18">
-        <v>11.123</v>
+        <v>11.122999999999999</v>
       </c>
       <c r="M18">
         <v>13.272</v>
       </c>
       <c r="O18">
-        <v>12.011</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.010999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1995</v>
       </c>
@@ -1278,7 +1336,7 @@
         <v>14.586</v>
       </c>
       <c r="C19">
-        <v>15.226</v>
+        <v>15.226000000000001</v>
       </c>
       <c r="D19">
         <v>15.26</v>
@@ -1293,45 +1351,45 @@
         <v>11.44</v>
       </c>
       <c r="H19">
-        <v>8.987</v>
+        <v>8.9870000000000001</v>
       </c>
       <c r="I19">
-        <v>6.744</v>
+        <v>6.7439999999999998</v>
       </c>
       <c r="J19">
         <v>6.08</v>
       </c>
       <c r="K19">
-        <v>7.829</v>
+        <v>7.8289999999999997</v>
       </c>
       <c r="L19">
-        <v>10.761</v>
+        <v>10.760999999999999</v>
       </c>
       <c r="M19">
-        <v>12.921</v>
+        <v>12.920999999999999</v>
       </c>
       <c r="O19">
-        <v>11.415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.414999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1996</v>
       </c>
       <c r="B20">
-        <v>14.181</v>
+        <v>14.180999999999999</v>
       </c>
       <c r="C20">
-        <v>15.155</v>
+        <v>15.154999999999999</v>
       </c>
       <c r="D20">
-        <v>15.123</v>
+        <v>15.122999999999999</v>
       </c>
       <c r="E20">
-        <v>14.216</v>
+        <v>14.215999999999999</v>
       </c>
       <c r="F20">
-        <v>13.094</v>
+        <v>13.093999999999999</v>
       </c>
       <c r="G20">
         <v>12.084</v>
@@ -1343,22 +1401,22 @@
         <v>8.18</v>
       </c>
       <c r="J20">
-        <v>7.583</v>
+        <v>7.5830000000000002</v>
       </c>
       <c r="K20">
-        <v>9.161</v>
+        <v>9.1609999999999996</v>
       </c>
       <c r="L20">
-        <v>10.402</v>
+        <v>10.401999999999999</v>
       </c>
       <c r="M20">
-        <v>12.861</v>
+        <v>12.861000000000001</v>
       </c>
       <c r="O20">
-        <v>11.841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.840999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1997</v>
       </c>
@@ -1366,13 +1424,13 @@
         <v>14.417</v>
       </c>
       <c r="C21">
-        <v>15.437</v>
+        <v>15.436999999999999</v>
       </c>
       <c r="D21">
-        <v>15.467</v>
+        <v>15.467000000000001</v>
       </c>
       <c r="E21">
-        <v>14.563</v>
+        <v>14.563000000000001</v>
       </c>
       <c r="F21">
         <v>13.177</v>
@@ -1381,28 +1439,28 @@
         <v>11.738</v>
       </c>
       <c r="H21">
-        <v>9.411</v>
+        <v>9.4109999999999996</v>
       </c>
       <c r="I21">
-        <v>7.285</v>
+        <v>7.2850000000000001</v>
       </c>
       <c r="J21">
-        <v>6.686</v>
+        <v>6.6859999999999999</v>
       </c>
       <c r="K21">
-        <v>8.337</v>
+        <v>8.3369999999999997</v>
       </c>
       <c r="L21">
-        <v>10.684</v>
+        <v>10.683999999999999</v>
       </c>
       <c r="M21">
-        <v>13.076</v>
+        <v>13.076000000000001</v>
       </c>
       <c r="O21">
-        <v>11.668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.667999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1998</v>
       </c>
@@ -1413,10 +1471,10 @@
         <v>15.746</v>
       </c>
       <c r="D22">
-        <v>15.598</v>
+        <v>15.598000000000001</v>
       </c>
       <c r="E22">
-        <v>14.892</v>
+        <v>14.891999999999999</v>
       </c>
       <c r="F22">
         <v>13.59</v>
@@ -1425,19 +1483,19 @@
         <v>11.706</v>
       </c>
       <c r="H22">
-        <v>9.414999999999999</v>
+        <v>9.4149999999999991</v>
       </c>
       <c r="I22">
-        <v>7.509</v>
+        <v>7.5090000000000003</v>
       </c>
       <c r="J22">
-        <v>6.536</v>
+        <v>6.5359999999999996</v>
       </c>
       <c r="K22">
         <v>8.452</v>
       </c>
       <c r="L22">
-        <v>10.441</v>
+        <v>10.441000000000001</v>
       </c>
       <c r="M22">
         <v>12.759</v>
@@ -1446,7 +1504,7 @@
         <v>11.757</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1999</v>
       </c>
@@ -1454,7 +1512,7 @@
         <v>14.359</v>
       </c>
       <c r="C23">
-        <v>15.309</v>
+        <v>15.308999999999999</v>
       </c>
       <c r="D23">
         <v>15.398</v>
@@ -1463,13 +1521,13 @@
         <v>15.084</v>
       </c>
       <c r="F23">
-        <v>13.751</v>
+        <v>13.750999999999999</v>
       </c>
       <c r="G23">
         <v>11.779</v>
       </c>
       <c r="H23">
-        <v>9.488</v>
+        <v>9.4879999999999995</v>
       </c>
       <c r="I23">
         <v>7.226</v>
@@ -1478,19 +1536,19 @@
         <v>6.117</v>
       </c>
       <c r="K23">
-        <v>8.603</v>
+        <v>8.6029999999999998</v>
       </c>
       <c r="L23">
-        <v>10.796</v>
+        <v>10.795999999999999</v>
       </c>
       <c r="M23">
         <v>12.641</v>
       </c>
       <c r="O23">
-        <v>11.691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.691000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2000</v>
       </c>
@@ -1510,19 +1568,19 @@
         <v>13.153</v>
       </c>
       <c r="G24">
-        <v>11.665</v>
+        <v>11.664999999999999</v>
       </c>
       <c r="H24">
-        <v>9.513</v>
+        <v>9.5129999999999999</v>
       </c>
       <c r="I24">
-        <v>7.168</v>
+        <v>7.1680000000000001</v>
       </c>
       <c r="J24">
-        <v>6.246</v>
+        <v>6.2460000000000004</v>
       </c>
       <c r="K24">
-        <v>8.379</v>
+        <v>8.3789999999999996</v>
       </c>
       <c r="L24">
         <v>10.321</v>
@@ -1531,15 +1589,15 @@
         <v>12.637</v>
       </c>
       <c r="O24">
-        <v>11.508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.507999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
       <c r="B25">
-        <v>14.203</v>
+        <v>14.202999999999999</v>
       </c>
       <c r="C25">
         <v>15.211</v>
@@ -1548,7 +1606,7 @@
         <v>15.516</v>
       </c>
       <c r="E25">
-        <v>14.857</v>
+        <v>14.856999999999999</v>
       </c>
       <c r="F25">
         <v>13.51</v>
@@ -1560,16 +1618,16 @@
         <v>9.07</v>
       </c>
       <c r="I25">
-        <v>7.461</v>
+        <v>7.4610000000000003</v>
       </c>
       <c r="J25">
-        <v>6.732</v>
+        <v>6.7320000000000002</v>
       </c>
       <c r="K25">
         <v>8.298</v>
       </c>
       <c r="L25">
-        <v>10.658</v>
+        <v>10.657999999999999</v>
       </c>
       <c r="M25">
         <v>12.491</v>
@@ -1578,7 +1636,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2002</v>
       </c>
@@ -1586,13 +1644,13 @@
         <v>14.273</v>
       </c>
       <c r="C26">
-        <v>15.342</v>
+        <v>15.342000000000001</v>
       </c>
       <c r="D26">
         <v>15.349</v>
       </c>
       <c r="E26">
-        <v>14.299</v>
+        <v>14.298999999999999</v>
       </c>
       <c r="F26">
         <v>12.971</v>
@@ -1601,28 +1659,28 @@
         <v>11.583</v>
       </c>
       <c r="H26">
-        <v>9.273999999999999</v>
+        <v>9.2739999999999991</v>
       </c>
       <c r="I26">
-        <v>6.599</v>
+        <v>6.5990000000000002</v>
       </c>
       <c r="J26">
         <v>5.827</v>
       </c>
       <c r="K26">
-        <v>8.162000000000001</v>
+        <v>8.1620000000000008</v>
       </c>
       <c r="L26">
-        <v>10.342</v>
+        <v>10.342000000000001</v>
       </c>
       <c r="M26">
-        <v>12.608</v>
+        <v>12.608000000000001</v>
       </c>
       <c r="O26">
         <v>11.363</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2003</v>
       </c>
@@ -1633,7 +1691,7 @@
         <v>15.193</v>
       </c>
       <c r="D27">
-        <v>15.485</v>
+        <v>15.484999999999999</v>
       </c>
       <c r="E27">
         <v>14.512</v>
@@ -1642,31 +1700,31 @@
         <v>13.016</v>
       </c>
       <c r="G27">
-        <v>11.604</v>
+        <v>11.603999999999999</v>
       </c>
       <c r="H27">
-        <v>9.215</v>
+        <v>9.2149999999999999</v>
       </c>
       <c r="I27">
-        <v>6.936</v>
+        <v>6.9359999999999999</v>
       </c>
       <c r="J27">
-        <v>6.116</v>
+        <v>6.1159999999999997</v>
       </c>
       <c r="K27">
-        <v>7.848</v>
+        <v>7.8479999999999999</v>
       </c>
       <c r="L27">
         <v>10.125</v>
       </c>
       <c r="M27">
-        <v>12.588</v>
+        <v>12.587999999999999</v>
       </c>
       <c r="O27">
         <v>11.397</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2004</v>
       </c>
@@ -1686,19 +1744,19 @@
         <v>12.558</v>
       </c>
       <c r="G28">
-        <v>11.447</v>
+        <v>11.446999999999999</v>
       </c>
       <c r="H28">
-        <v>9.430999999999999</v>
+        <v>9.4309999999999992</v>
       </c>
       <c r="I28">
-        <v>6.855</v>
+        <v>6.8550000000000004</v>
       </c>
       <c r="J28">
         <v>5.984</v>
       </c>
       <c r="K28">
-        <v>7.925</v>
+        <v>7.9249999999999998</v>
       </c>
       <c r="L28">
         <v>10.343</v>
@@ -1710,7 +1768,7 @@
         <v>11.24</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2005</v>
       </c>
@@ -1718,10 +1776,10 @@
         <v>13.661</v>
       </c>
       <c r="C29">
-        <v>14.373</v>
+        <v>14.372999999999999</v>
       </c>
       <c r="D29">
-        <v>14.687</v>
+        <v>14.686999999999999</v>
       </c>
       <c r="E29">
         <v>14.09</v>
@@ -1730,22 +1788,22 @@
         <v>12.911</v>
       </c>
       <c r="G29">
-        <v>11.162</v>
+        <v>11.162000000000001</v>
       </c>
       <c r="H29">
-        <v>8.648999999999999</v>
+        <v>8.6489999999999991</v>
       </c>
       <c r="I29">
-        <v>6.301</v>
+        <v>6.3010000000000002</v>
       </c>
       <c r="J29">
-        <v>5.504</v>
+        <v>5.5039999999999996</v>
       </c>
       <c r="K29">
-        <v>7.352</v>
+        <v>7.3520000000000003</v>
       </c>
       <c r="L29">
-        <v>10.216</v>
+        <v>10.215999999999999</v>
       </c>
       <c r="M29">
         <v>12.228</v>
@@ -1754,42 +1812,42 @@
         <v>10.907</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2006</v>
       </c>
       <c r="B30">
-        <v>13.466</v>
+        <v>13.465999999999999</v>
       </c>
       <c r="C30">
-        <v>14.325</v>
+        <v>14.324999999999999</v>
       </c>
       <c r="D30">
-        <v>14.421</v>
+        <v>14.420999999999999</v>
       </c>
       <c r="E30">
-        <v>13.906</v>
+        <v>13.906000000000001</v>
       </c>
       <c r="F30">
-        <v>12.517</v>
+        <v>12.516999999999999</v>
       </c>
       <c r="G30">
         <v>10.92</v>
       </c>
       <c r="H30">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="I30">
-        <v>6.496</v>
+        <v>6.4960000000000004</v>
       </c>
       <c r="J30">
-        <v>5.862</v>
+        <v>5.8620000000000001</v>
       </c>
       <c r="K30">
-        <v>7.541</v>
+        <v>7.5410000000000004</v>
       </c>
       <c r="L30">
-        <v>9.659000000000001</v>
+        <v>9.6590000000000007</v>
       </c>
       <c r="M30">
         <v>11.955</v>
@@ -1798,12 +1856,12 @@
         <v>10.773</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
       <c r="B31">
-        <v>13.703</v>
+        <v>13.702999999999999</v>
       </c>
       <c r="C31">
         <v>14.513</v>
@@ -1812,7 +1870,7 @@
         <v>14.542</v>
       </c>
       <c r="E31">
-        <v>13.845</v>
+        <v>13.845000000000001</v>
       </c>
       <c r="F31">
         <v>12.78</v>
@@ -1821,13 +1879,13 @@
         <v>11.22</v>
       </c>
       <c r="H31">
-        <v>7.943</v>
+        <v>7.9429999999999996</v>
       </c>
       <c r="I31">
-        <v>5.342</v>
+        <v>5.3419999999999996</v>
       </c>
       <c r="J31">
-        <v>4.267</v>
+        <v>4.2670000000000003</v>
       </c>
       <c r="K31">
         <v>6.04</v>
@@ -1836,13 +1894,13 @@
         <v>9.76</v>
       </c>
       <c r="M31">
-        <v>12.034</v>
+        <v>12.034000000000001</v>
       </c>
       <c r="O31">
         <v>10.474</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2008</v>
       </c>
@@ -1850,7 +1908,7 @@
         <v>13.887</v>
       </c>
       <c r="C32">
-        <v>14.953</v>
+        <v>14.952999999999999</v>
       </c>
       <c r="D32">
         <v>15.179</v>
@@ -1865,13 +1923,13 @@
         <v>11.208</v>
       </c>
       <c r="H32">
-        <v>8.678000000000001</v>
+        <v>8.6780000000000008</v>
       </c>
       <c r="I32">
-        <v>5.913</v>
+        <v>5.9130000000000003</v>
       </c>
       <c r="J32">
-        <v>4.687</v>
+        <v>4.6870000000000003</v>
       </c>
       <c r="K32">
         <v>7.35</v>
@@ -1886,7 +1944,7 @@
         <v>10.978</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2009</v>
       </c>
@@ -1894,7 +1952,7 @@
         <v>13.914</v>
       </c>
       <c r="C33">
-        <v>14.812</v>
+        <v>14.811999999999999</v>
       </c>
       <c r="D33">
         <v>14.984</v>
@@ -1903,25 +1961,25 @@
         <v>14.496</v>
       </c>
       <c r="F33">
-        <v>13.187</v>
+        <v>13.186999999999999</v>
       </c>
       <c r="G33">
         <v>11.32</v>
       </c>
       <c r="H33">
-        <v>8.465</v>
+        <v>8.4649999999999999</v>
       </c>
       <c r="I33">
-        <v>6.136</v>
+        <v>6.1360000000000001</v>
       </c>
       <c r="J33">
-        <v>5.262</v>
+        <v>5.2619999999999996</v>
       </c>
       <c r="K33">
         <v>6.92</v>
       </c>
       <c r="L33">
-        <v>9.772</v>
+        <v>9.7720000000000002</v>
       </c>
       <c r="M33">
         <v>12.2</v>
@@ -1930,12 +1988,12 @@
         <v>10.932</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2010</v>
       </c>
       <c r="B34">
-        <v>13.739</v>
+        <v>13.739000000000001</v>
       </c>
       <c r="C34">
         <v>14.581</v>
@@ -1944,28 +2002,28 @@
         <v>15.137</v>
       </c>
       <c r="E34">
-        <v>14.659</v>
+        <v>14.659000000000001</v>
       </c>
       <c r="F34">
         <v>12.866</v>
       </c>
       <c r="G34">
-        <v>10.585</v>
+        <v>10.585000000000001</v>
       </c>
       <c r="H34">
-        <v>8.074999999999999</v>
+        <v>8.0749999999999993</v>
       </c>
       <c r="I34">
         <v>5.875</v>
       </c>
       <c r="J34">
-        <v>4.865</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="K34">
         <v>6.984</v>
       </c>
       <c r="L34">
-        <v>9.614000000000001</v>
+        <v>9.6140000000000008</v>
       </c>
       <c r="M34">
         <v>11.831</v>
@@ -1974,7 +2032,7 @@
         <v>10.711</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2011</v>
       </c>
@@ -1985,98 +2043,98 @@
         <v>14.363</v>
       </c>
       <c r="D35">
-        <v>14.546</v>
+        <v>14.545999999999999</v>
       </c>
       <c r="E35">
-        <v>14.108</v>
+        <v>14.108000000000001</v>
       </c>
       <c r="F35">
-        <v>12.681</v>
+        <v>12.680999999999999</v>
       </c>
       <c r="G35">
-        <v>10.749</v>
+        <v>10.749000000000001</v>
       </c>
       <c r="H35">
-        <v>7.724</v>
+        <v>7.7240000000000002</v>
       </c>
       <c r="I35">
-        <v>5.503</v>
+        <v>5.5030000000000001</v>
       </c>
       <c r="J35">
-        <v>4.561</v>
+        <v>4.5609999999999999</v>
       </c>
       <c r="K35">
-        <v>6.465</v>
+        <v>6.4649999999999999</v>
       </c>
       <c r="L35">
-        <v>9.772</v>
+        <v>9.7720000000000002</v>
       </c>
       <c r="M35">
         <v>12.154</v>
       </c>
       <c r="O35">
-        <v>10.483</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>10.483000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2012</v>
       </c>
       <c r="B36">
-        <v>13.729</v>
+        <v>13.728999999999999</v>
       </c>
       <c r="C36">
-        <v>14.553</v>
+        <v>14.553000000000001</v>
       </c>
       <c r="D36">
         <v>15.196</v>
       </c>
       <c r="E36">
-        <v>14.626</v>
+        <v>14.625999999999999</v>
       </c>
       <c r="F36">
         <v>13.012</v>
       </c>
       <c r="G36">
-        <v>10.674</v>
+        <v>10.673999999999999</v>
       </c>
       <c r="H36">
-        <v>7.672</v>
+        <v>7.6719999999999997</v>
       </c>
       <c r="I36">
-        <v>4.723</v>
+        <v>4.7229999999999999</v>
       </c>
       <c r="J36">
-        <v>3.566</v>
+        <v>3.5659999999999998</v>
       </c>
       <c r="K36">
-        <v>5.886</v>
+        <v>5.8860000000000001</v>
       </c>
       <c r="L36">
-        <v>9.388</v>
+        <v>9.3879999999999999</v>
       </c>
       <c r="M36">
         <v>12.006</v>
       </c>
       <c r="O36">
-        <v>10.406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>10.406000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
       <c r="B37">
-        <v>13.703</v>
+        <v>13.702999999999999</v>
       </c>
       <c r="C37">
-        <v>14.723</v>
+        <v>14.723000000000001</v>
       </c>
       <c r="D37">
         <v>15.032</v>
       </c>
       <c r="E37">
-        <v>14.299</v>
+        <v>14.298999999999999</v>
       </c>
       <c r="F37">
         <v>12.997</v>
@@ -2085,28 +2143,28 @@
         <v>11.36</v>
       </c>
       <c r="H37">
-        <v>8.132</v>
+        <v>8.1319999999999997</v>
       </c>
       <c r="I37">
-        <v>6.014</v>
+        <v>6.0140000000000002</v>
       </c>
       <c r="J37">
-        <v>5.208</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="K37">
-        <v>7.455</v>
+        <v>7.4550000000000001</v>
       </c>
       <c r="L37">
-        <v>9.939</v>
+        <v>9.9390000000000001</v>
       </c>
       <c r="M37">
-        <v>12.184</v>
+        <v>12.183999999999999</v>
       </c>
       <c r="O37">
         <v>10.897</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -2114,31 +2172,31 @@
         <v>13.648</v>
       </c>
       <c r="C38">
-        <v>14.418</v>
+        <v>14.417999999999999</v>
       </c>
       <c r="D38">
-        <v>14.758</v>
+        <v>14.757999999999999</v>
       </c>
       <c r="E38">
-        <v>14.088</v>
+        <v>14.087999999999999</v>
       </c>
       <c r="F38">
-        <v>12.701</v>
+        <v>12.701000000000001</v>
       </c>
       <c r="G38">
-        <v>11.033</v>
+        <v>11.032999999999999</v>
       </c>
       <c r="H38">
-        <v>8.108000000000001</v>
+        <v>8.1080000000000005</v>
       </c>
       <c r="I38">
-        <v>6.078</v>
+        <v>6.0780000000000003</v>
       </c>
       <c r="J38">
         <v>5.22</v>
       </c>
       <c r="K38">
-        <v>7.232</v>
+        <v>7.2320000000000002</v>
       </c>
       <c r="L38">
         <v>10.115</v>
@@ -2150,7 +2208,7 @@
         <v>10.79</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
@@ -2164,7 +2222,7 @@
         <v>14.37</v>
       </c>
       <c r="E39">
-        <v>13.893</v>
+        <v>13.893000000000001</v>
       </c>
       <c r="F39">
         <v>12.468</v>
@@ -2173,63 +2231,63 @@
         <v>10.879</v>
       </c>
       <c r="H39">
-        <v>8.378</v>
+        <v>8.3780000000000001</v>
       </c>
       <c r="I39">
-        <v>5.599</v>
+        <v>5.5990000000000002</v>
       </c>
       <c r="J39">
-        <v>4.616</v>
+        <v>4.6159999999999997</v>
       </c>
       <c r="K39">
-        <v>6.966</v>
+        <v>6.9660000000000002</v>
       </c>
       <c r="L39">
-        <v>9.846</v>
+        <v>9.8460000000000001</v>
       </c>
       <c r="M39">
         <v>12.045</v>
       </c>
       <c r="O39">
-        <v>10.566</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>10.566000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
       <c r="B40">
-        <v>13.457</v>
+        <v>13.457000000000001</v>
       </c>
       <c r="C40">
-        <v>14.203</v>
+        <v>14.202999999999999</v>
       </c>
       <c r="D40">
         <v>14.4</v>
       </c>
       <c r="E40">
-        <v>13.681</v>
+        <v>13.680999999999999</v>
       </c>
       <c r="F40">
-        <v>11.924</v>
+        <v>11.923999999999999</v>
       </c>
       <c r="G40">
         <v>10.413</v>
       </c>
       <c r="H40">
-        <v>7.938</v>
+        <v>7.9379999999999997</v>
       </c>
       <c r="I40">
-        <v>5.371</v>
+        <v>5.3710000000000004</v>
       </c>
       <c r="J40">
-        <v>4.528</v>
+        <v>4.5279999999999996</v>
       </c>
       <c r="K40">
-        <v>6.082</v>
+        <v>6.0819999999999999</v>
       </c>
       <c r="L40">
-        <v>8.657999999999999</v>
+        <v>8.6579999999999995</v>
       </c>
       <c r="M40">
         <v>11.459</v>
@@ -2238,7 +2296,7 @@
         <v>10.163</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2017</v>
       </c>
@@ -2261,28 +2319,28 @@
         <v>10.756</v>
       </c>
       <c r="H41">
-        <v>7.939</v>
+        <v>7.9390000000000001</v>
       </c>
       <c r="I41">
-        <v>5.481</v>
+        <v>5.4809999999999999</v>
       </c>
       <c r="J41">
-        <v>4.822</v>
+        <v>4.8220000000000001</v>
       </c>
       <c r="K41">
-        <v>6.767</v>
+        <v>6.7670000000000003</v>
       </c>
       <c r="L41">
-        <v>9.493</v>
+        <v>9.4930000000000003</v>
       </c>
       <c r="M41">
         <v>11.743</v>
       </c>
       <c r="O41">
-        <v>10.393</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>10.393000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2018</v>
       </c>
@@ -2305,33 +2363,33 @@
         <v>10.709</v>
       </c>
       <c r="H42">
-        <v>8.224</v>
+        <v>8.2240000000000002</v>
       </c>
       <c r="I42">
-        <v>5.608</v>
+        <v>5.6079999999999997</v>
       </c>
       <c r="J42">
-        <v>4.714</v>
+        <v>4.7140000000000004</v>
       </c>
       <c r="K42">
-        <v>6.064</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="L42">
-        <v>9.805</v>
+        <v>9.8049999999999997</v>
       </c>
       <c r="M42">
-        <v>11.857</v>
+        <v>11.856999999999999</v>
       </c>
       <c r="O42">
         <v>10.327</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2019</v>
       </c>
       <c r="B43">
-        <v>13.556</v>
+        <v>13.555999999999999</v>
       </c>
       <c r="C43">
         <v>14.398</v>
@@ -2349,14 +2407,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2398,12 +2459,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1978</v>
       </c>
       <c r="L2">
-        <v>9.037000000000001</v>
+        <v>9.0370000000000008</v>
       </c>
       <c r="M2">
         <v>10.901</v>
@@ -2412,15 +2473,15 @@
         <v>9.984</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1979</v>
       </c>
       <c r="B3">
-        <v>12.406</v>
+        <v>12.406000000000001</v>
       </c>
       <c r="C3">
-        <v>13.181</v>
+        <v>13.180999999999999</v>
       </c>
       <c r="D3">
         <v>13.208</v>
@@ -2432,36 +2493,36 @@
         <v>11.109</v>
       </c>
       <c r="G3">
-        <v>9.343999999999999</v>
+        <v>9.3439999999999994</v>
       </c>
       <c r="H3">
-        <v>6.692</v>
+        <v>6.6920000000000002</v>
       </c>
       <c r="I3">
         <v>5.056</v>
       </c>
       <c r="J3">
-        <v>4.583</v>
+        <v>4.5830000000000002</v>
       </c>
       <c r="K3">
-        <v>6.189</v>
+        <v>6.1890000000000001</v>
       </c>
       <c r="L3">
-        <v>8.367000000000001</v>
+        <v>8.3670000000000009</v>
       </c>
       <c r="M3">
-        <v>10.633</v>
+        <v>10.632999999999999</v>
       </c>
       <c r="O3">
-        <v>9.417999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.4179999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1980</v>
       </c>
       <c r="B4">
-        <v>11.938</v>
+        <v>11.938000000000001</v>
       </c>
       <c r="C4">
         <v>12.901</v>
@@ -2476,31 +2537,31 @@
         <v>10.964</v>
       </c>
       <c r="G4">
-        <v>9.003</v>
+        <v>9.0030000000000001</v>
       </c>
       <c r="H4">
-        <v>6.535</v>
+        <v>6.5350000000000001</v>
       </c>
       <c r="I4">
-        <v>4.938</v>
+        <v>4.9379999999999997</v>
       </c>
       <c r="J4">
-        <v>4.871</v>
+        <v>4.8710000000000004</v>
       </c>
       <c r="K4">
-        <v>6.495</v>
+        <v>6.4950000000000001</v>
       </c>
       <c r="L4">
-        <v>8.727</v>
+        <v>8.7270000000000003</v>
       </c>
       <c r="M4">
-        <v>10.781</v>
+        <v>10.781000000000001</v>
       </c>
       <c r="O4">
-        <v>9.375999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.3759999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1981</v>
       </c>
@@ -2508,43 +2569,43 @@
         <v>11.907</v>
       </c>
       <c r="C5">
-        <v>12.533</v>
+        <v>12.532999999999999</v>
       </c>
       <c r="D5">
         <v>12.714</v>
       </c>
       <c r="E5">
-        <v>12.239</v>
+        <v>12.239000000000001</v>
       </c>
       <c r="F5">
         <v>10.991</v>
       </c>
       <c r="G5">
-        <v>9.029</v>
+        <v>9.0289999999999999</v>
       </c>
       <c r="H5">
-        <v>6.313</v>
+        <v>6.3129999999999997</v>
       </c>
       <c r="I5">
-        <v>4.477</v>
+        <v>4.4770000000000003</v>
       </c>
       <c r="J5">
-        <v>4.439</v>
+        <v>4.4390000000000001</v>
       </c>
       <c r="K5">
-        <v>6.265</v>
+        <v>6.2649999999999997</v>
       </c>
       <c r="L5">
-        <v>8.313000000000001</v>
+        <v>8.3130000000000006</v>
       </c>
       <c r="M5">
-        <v>10.543</v>
+        <v>10.542999999999999</v>
       </c>
       <c r="O5">
-        <v>9.125999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.1259999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1982</v>
       </c>
@@ -2555,7 +2616,7 @@
         <v>12.868</v>
       </c>
       <c r="D6">
-        <v>13.066</v>
+        <v>13.066000000000001</v>
       </c>
       <c r="E6">
         <v>12.63</v>
@@ -2564,31 +2625,31 @@
         <v>11.169</v>
       </c>
       <c r="G6">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="H6">
         <v>6.87</v>
       </c>
       <c r="I6">
-        <v>5.003</v>
+        <v>5.0030000000000001</v>
       </c>
       <c r="J6">
-        <v>4.435</v>
+        <v>4.4349999999999996</v>
       </c>
       <c r="K6">
         <v>6.67</v>
       </c>
       <c r="L6">
-        <v>9.058999999999999</v>
+        <v>9.0589999999999993</v>
       </c>
       <c r="M6">
         <v>10.879</v>
       </c>
       <c r="O6">
-        <v>9.504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.5039999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1983</v>
       </c>
@@ -2599,40 +2660,40 @@
         <v>12.942</v>
       </c>
       <c r="D7">
-        <v>12.928</v>
+        <v>12.928000000000001</v>
       </c>
       <c r="E7">
-        <v>12.213</v>
+        <v>12.212999999999999</v>
       </c>
       <c r="F7">
         <v>10.868</v>
       </c>
       <c r="G7">
-        <v>9.265000000000001</v>
+        <v>9.2650000000000006</v>
       </c>
       <c r="H7">
-        <v>6.856</v>
+        <v>6.8559999999999999</v>
       </c>
       <c r="I7">
-        <v>4.975</v>
+        <v>4.9749999999999996</v>
       </c>
       <c r="J7">
-        <v>4.703</v>
+        <v>4.7030000000000003</v>
       </c>
       <c r="K7">
-        <v>6.788</v>
+        <v>6.7880000000000003</v>
       </c>
       <c r="L7">
-        <v>8.986000000000001</v>
+        <v>8.9860000000000007</v>
       </c>
       <c r="M7">
         <v>10.629</v>
       </c>
       <c r="O7">
-        <v>9.407999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.4079999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1984</v>
       </c>
@@ -2646,7 +2707,7 @@
         <v>12.555</v>
       </c>
       <c r="E8">
-        <v>12.178</v>
+        <v>12.178000000000001</v>
       </c>
       <c r="F8">
         <v>10.88</v>
@@ -2655,28 +2716,28 @@
         <v>9.093</v>
       </c>
       <c r="H8">
-        <v>6.297</v>
+        <v>6.2969999999999997</v>
       </c>
       <c r="I8">
         <v>4.681</v>
       </c>
       <c r="J8">
-        <v>4.106</v>
+        <v>4.1059999999999999</v>
       </c>
       <c r="K8">
-        <v>5.911</v>
+        <v>5.9109999999999996</v>
       </c>
       <c r="L8">
-        <v>8.234999999999999</v>
+        <v>8.2349999999999994</v>
       </c>
       <c r="M8">
         <v>10.269</v>
       </c>
       <c r="O8">
-        <v>9.000999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.0009999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1985</v>
       </c>
@@ -2687,7 +2748,7 @@
         <v>12.48</v>
       </c>
       <c r="D9">
-        <v>12.748</v>
+        <v>12.747999999999999</v>
       </c>
       <c r="E9">
         <v>12.545</v>
@@ -2696,31 +2757,31 @@
         <v>11.246</v>
       </c>
       <c r="G9">
-        <v>8.957000000000001</v>
+        <v>8.9570000000000007</v>
       </c>
       <c r="H9">
-        <v>5.988</v>
+        <v>5.9880000000000004</v>
       </c>
       <c r="I9">
-        <v>4.603</v>
+        <v>4.6029999999999998</v>
       </c>
       <c r="J9">
-        <v>4.232</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="K9">
-        <v>6.123</v>
+        <v>6.1230000000000002</v>
       </c>
       <c r="L9">
-        <v>8.423999999999999</v>
+        <v>8.4239999999999995</v>
       </c>
       <c r="M9">
         <v>10.24</v>
       </c>
       <c r="O9">
-        <v>9.085000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>9.0850000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1986</v>
       </c>
@@ -2728,13 +2789,13 @@
         <v>11.882</v>
       </c>
       <c r="C10">
-        <v>12.617</v>
+        <v>12.617000000000001</v>
       </c>
       <c r="D10">
         <v>12.721</v>
       </c>
       <c r="E10">
-        <v>12.037</v>
+        <v>12.037000000000001</v>
       </c>
       <c r="F10">
         <v>10.702</v>
@@ -2743,28 +2804,28 @@
         <v>8.99</v>
       </c>
       <c r="H10">
-        <v>6.621</v>
+        <v>6.6210000000000004</v>
       </c>
       <c r="I10">
-        <v>5.007</v>
+        <v>5.0069999999999997</v>
       </c>
       <c r="J10">
         <v>4.72</v>
       </c>
       <c r="K10">
-        <v>6.834</v>
+        <v>6.8339999999999996</v>
       </c>
       <c r="L10">
-        <v>8.872999999999999</v>
+        <v>8.8729999999999993</v>
       </c>
       <c r="M10">
-        <v>10.534</v>
+        <v>10.534000000000001</v>
       </c>
       <c r="O10">
-        <v>9.275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>9.2750000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1987</v>
       </c>
@@ -2772,13 +2833,13 @@
         <v>11.897</v>
       </c>
       <c r="C11">
-        <v>13.021</v>
+        <v>13.021000000000001</v>
       </c>
       <c r="D11">
         <v>12.83</v>
       </c>
       <c r="E11">
-        <v>12.351</v>
+        <v>12.351000000000001</v>
       </c>
       <c r="F11">
         <v>10.968</v>
@@ -2787,22 +2848,22 @@
         <v>9.391</v>
       </c>
       <c r="H11">
-        <v>6.551</v>
+        <v>6.5510000000000002</v>
       </c>
       <c r="J11">
         <v>5.641</v>
       </c>
       <c r="K11">
-        <v>7.491</v>
+        <v>7.4909999999999997</v>
       </c>
       <c r="L11">
         <v>9.734</v>
       </c>
       <c r="O11" s="2">
-        <v>9.967000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>9.9670000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1988</v>
       </c>
@@ -2819,31 +2880,31 @@
         <v>11.413</v>
       </c>
       <c r="G12">
-        <v>9.683999999999999</v>
+        <v>9.6839999999999993</v>
       </c>
       <c r="H12">
-        <v>7.007</v>
+        <v>7.0069999999999997</v>
       </c>
       <c r="I12">
         <v>5.423</v>
       </c>
       <c r="J12">
-        <v>5.362</v>
+        <v>5.3620000000000001</v>
       </c>
       <c r="K12">
-        <v>7.518</v>
+        <v>7.5179999999999998</v>
       </c>
       <c r="L12">
-        <v>9.911</v>
+        <v>9.9109999999999996</v>
       </c>
       <c r="M12">
-        <v>11.992</v>
+        <v>11.992000000000001</v>
       </c>
       <c r="O12" s="2">
-        <v>9.888999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.8889999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1989</v>
       </c>
@@ -2851,10 +2912,10 @@
         <v>13.179</v>
       </c>
       <c r="C13">
-        <v>13.364</v>
+        <v>13.364000000000001</v>
       </c>
       <c r="D13">
-        <v>13.213</v>
+        <v>13.212999999999999</v>
       </c>
       <c r="E13">
         <v>12.356</v>
@@ -2863,31 +2924,31 @@
         <v>11.35</v>
       </c>
       <c r="G13">
-        <v>9.951000000000001</v>
+        <v>9.9510000000000005</v>
       </c>
       <c r="H13">
-        <v>7.329</v>
+        <v>7.3289999999999997</v>
       </c>
       <c r="I13">
-        <v>5.563</v>
+        <v>5.5629999999999997</v>
       </c>
       <c r="J13">
-        <v>4.863</v>
+        <v>4.8630000000000004</v>
       </c>
       <c r="K13">
-        <v>6.956</v>
+        <v>6.9560000000000004</v>
       </c>
       <c r="L13">
-        <v>9.462999999999999</v>
+        <v>9.4629999999999992</v>
       </c>
       <c r="M13">
         <v>11.606</v>
       </c>
       <c r="O13">
-        <v>9.913</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.9130000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1990</v>
       </c>
@@ -2901,37 +2962,37 @@
         <v>13.506</v>
       </c>
       <c r="E14">
-        <v>12.277</v>
+        <v>12.276999999999999</v>
       </c>
       <c r="F14">
-        <v>10.902</v>
+        <v>10.901999999999999</v>
       </c>
       <c r="G14">
-        <v>9.196</v>
+        <v>9.1959999999999997</v>
       </c>
       <c r="H14">
-        <v>6.522</v>
+        <v>6.5220000000000002</v>
       </c>
       <c r="I14">
-        <v>4.995</v>
+        <v>4.9950000000000001</v>
       </c>
       <c r="J14">
-        <v>4.545</v>
+        <v>4.5449999999999999</v>
       </c>
       <c r="K14">
-        <v>6.736</v>
+        <v>6.7359999999999998</v>
       </c>
       <c r="L14">
-        <v>9.644</v>
+        <v>9.6440000000000001</v>
       </c>
       <c r="M14">
-        <v>11.469</v>
+        <v>11.468999999999999</v>
       </c>
       <c r="O14">
-        <v>9.645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.6449999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1991</v>
       </c>
@@ -2948,45 +3009,45 @@
         <v>12.868</v>
       </c>
       <c r="F15">
-        <v>11.499</v>
+        <v>11.499000000000001</v>
       </c>
       <c r="G15">
-        <v>9.659000000000001</v>
+        <v>9.6590000000000007</v>
       </c>
       <c r="H15">
-        <v>6.761</v>
+        <v>6.7610000000000001</v>
       </c>
       <c r="I15">
-        <v>5.208</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="J15">
-        <v>4.513</v>
+        <v>4.5129999999999999</v>
       </c>
       <c r="K15">
-        <v>6.752</v>
+        <v>6.7519999999999998</v>
       </c>
       <c r="L15">
-        <v>9.252000000000001</v>
+        <v>9.2520000000000007</v>
       </c>
       <c r="M15">
         <v>11.193</v>
       </c>
       <c r="O15">
-        <v>9.722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.7219999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1992</v>
       </c>
       <c r="B16">
-        <v>12.614</v>
+        <v>12.614000000000001</v>
       </c>
       <c r="C16">
         <v>13.583</v>
       </c>
       <c r="D16">
-        <v>13.483</v>
+        <v>13.483000000000001</v>
       </c>
       <c r="E16">
         <v>12.839</v>
@@ -2995,22 +3056,22 @@
         <v>11.427</v>
       </c>
       <c r="G16">
-        <v>9.946</v>
+        <v>9.9459999999999997</v>
       </c>
       <c r="H16">
-        <v>7.217</v>
+        <v>7.2169999999999996</v>
       </c>
       <c r="I16">
-        <v>5.439</v>
+        <v>5.4390000000000001</v>
       </c>
       <c r="J16">
-        <v>5.426</v>
+        <v>5.4260000000000002</v>
       </c>
       <c r="K16">
-        <v>7.739</v>
+        <v>7.7389999999999999</v>
       </c>
       <c r="L16">
-        <v>9.747999999999999</v>
+        <v>9.7479999999999993</v>
       </c>
       <c r="M16">
         <v>11.722</v>
@@ -3019,7 +3080,7 @@
         <v>10.086</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1993</v>
       </c>
@@ -3036,34 +3097,34 @@
         <v>13.028</v>
       </c>
       <c r="F17">
-        <v>11.415</v>
+        <v>11.414999999999999</v>
       </c>
       <c r="G17">
-        <v>9.260999999999999</v>
+        <v>9.2609999999999992</v>
       </c>
       <c r="H17">
-        <v>6.279</v>
+        <v>6.2789999999999999</v>
       </c>
       <c r="I17">
-        <v>4.759</v>
+        <v>4.7590000000000003</v>
       </c>
       <c r="J17">
         <v>4.577</v>
       </c>
       <c r="K17">
-        <v>7.058</v>
+        <v>7.0579999999999998</v>
       </c>
       <c r="L17">
-        <v>9.545</v>
+        <v>9.5449999999999999</v>
       </c>
       <c r="M17">
-        <v>11.476</v>
+        <v>11.476000000000001</v>
       </c>
       <c r="O17">
-        <v>9.786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.7859999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1994</v>
       </c>
@@ -3080,25 +3141,25 @@
         <v>12.913</v>
       </c>
       <c r="F18">
-        <v>11.658</v>
+        <v>11.657999999999999</v>
       </c>
       <c r="G18">
-        <v>9.683999999999999</v>
+        <v>9.6839999999999993</v>
       </c>
       <c r="H18">
         <v>6.923</v>
       </c>
       <c r="I18">
-        <v>5.188</v>
+        <v>5.1879999999999997</v>
       </c>
       <c r="J18">
         <v>5.13</v>
       </c>
       <c r="K18">
-        <v>7.232</v>
+        <v>7.2320000000000002</v>
       </c>
       <c r="L18">
-        <v>9.715</v>
+        <v>9.7149999999999999</v>
       </c>
       <c r="M18">
         <v>11.493</v>
@@ -3107,7 +3168,7 @@
         <v>9.968</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1995</v>
       </c>
@@ -3121,81 +3182,81 @@
         <v>13.339</v>
       </c>
       <c r="E19">
-        <v>12.405</v>
+        <v>12.404999999999999</v>
       </c>
       <c r="F19">
-        <v>10.902</v>
+        <v>10.901999999999999</v>
       </c>
       <c r="G19">
-        <v>8.944000000000001</v>
+        <v>8.9440000000000008</v>
       </c>
       <c r="H19">
-        <v>6.156</v>
+        <v>6.1559999999999997</v>
       </c>
       <c r="I19">
-        <v>4.693</v>
+        <v>4.6929999999999996</v>
       </c>
       <c r="J19">
-        <v>4.428</v>
+        <v>4.4279999999999999</v>
       </c>
       <c r="K19">
-        <v>5.991</v>
+        <v>5.9909999999999997</v>
       </c>
       <c r="L19">
         <v>9.032</v>
       </c>
       <c r="M19">
-        <v>11.088</v>
+        <v>11.087999999999999</v>
       </c>
       <c r="O19">
-        <v>9.403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.4030000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1996</v>
       </c>
       <c r="B20">
-        <v>12.152</v>
+        <v>12.151999999999999</v>
       </c>
       <c r="C20">
-        <v>12.979</v>
+        <v>12.978999999999999</v>
       </c>
       <c r="D20">
         <v>12.904</v>
       </c>
       <c r="E20">
-        <v>12.322</v>
+        <v>12.321999999999999</v>
       </c>
       <c r="F20">
-        <v>11.284</v>
+        <v>11.284000000000001</v>
       </c>
       <c r="G20">
-        <v>9.834</v>
+        <v>9.8339999999999996</v>
       </c>
       <c r="H20">
-        <v>7.438</v>
+        <v>7.4379999999999997</v>
       </c>
       <c r="I20">
-        <v>5.733</v>
+        <v>5.7329999999999997</v>
       </c>
       <c r="J20">
-        <v>5.623</v>
+        <v>5.6230000000000002</v>
       </c>
       <c r="K20">
-        <v>7.544</v>
+        <v>7.5439999999999996</v>
       </c>
       <c r="L20">
-        <v>8.765000000000001</v>
+        <v>8.7650000000000006</v>
       </c>
       <c r="M20">
-        <v>11.031</v>
+        <v>11.031000000000001</v>
       </c>
       <c r="O20">
-        <v>9.791</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>9.7910000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1997</v>
       </c>
@@ -3203,51 +3264,51 @@
         <v>12.395</v>
       </c>
       <c r="C21">
-        <v>13.438</v>
+        <v>13.438000000000001</v>
       </c>
       <c r="D21">
-        <v>13.303</v>
+        <v>13.303000000000001</v>
       </c>
       <c r="E21">
         <v>12.574</v>
       </c>
       <c r="F21">
-        <v>11.236</v>
+        <v>11.236000000000001</v>
       </c>
       <c r="G21">
-        <v>9.196999999999999</v>
+        <v>9.1969999999999992</v>
       </c>
       <c r="H21">
-        <v>6.501</v>
+        <v>6.5010000000000003</v>
       </c>
       <c r="I21">
-        <v>5.089</v>
+        <v>5.0890000000000004</v>
       </c>
       <c r="J21">
-        <v>4.892</v>
+        <v>4.8920000000000003</v>
       </c>
       <c r="K21">
-        <v>6.467</v>
+        <v>6.4669999999999996</v>
       </c>
       <c r="L21">
-        <v>9.071</v>
+        <v>9.0709999999999997</v>
       </c>
       <c r="M21">
-        <v>11.242</v>
+        <v>11.242000000000001</v>
       </c>
       <c r="O21">
         <v>9.593</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1998</v>
       </c>
       <c r="B22">
-        <v>12.806</v>
+        <v>12.805999999999999</v>
       </c>
       <c r="C22">
-        <v>13.768</v>
+        <v>13.768000000000001</v>
       </c>
       <c r="D22">
         <v>13.574</v>
@@ -3259,31 +3320,31 @@
         <v>11.398</v>
       </c>
       <c r="G22">
-        <v>9.183999999999999</v>
+        <v>9.1839999999999993</v>
       </c>
       <c r="H22">
-        <v>6.449</v>
+        <v>6.4489999999999998</v>
       </c>
       <c r="I22">
-        <v>4.691</v>
+        <v>4.6909999999999998</v>
       </c>
       <c r="J22">
-        <v>4.297</v>
+        <v>4.2969999999999997</v>
       </c>
       <c r="K22">
-        <v>6.706</v>
+        <v>6.7060000000000004</v>
       </c>
       <c r="L22">
-        <v>8.884</v>
+        <v>8.8840000000000003</v>
       </c>
       <c r="M22">
         <v>10.91</v>
       </c>
       <c r="O22">
-        <v>9.601000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>9.6010000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1999</v>
       </c>
@@ -3291,7 +3352,7 @@
         <v>12.602</v>
       </c>
       <c r="C23">
-        <v>13.451</v>
+        <v>13.451000000000001</v>
       </c>
       <c r="D23">
         <v>13.54</v>
@@ -3300,34 +3361,34 @@
         <v>13.15</v>
       </c>
       <c r="F23">
-        <v>11.665</v>
+        <v>11.664999999999999</v>
       </c>
       <c r="G23">
-        <v>9.252000000000001</v>
+        <v>9.2520000000000007</v>
       </c>
       <c r="H23">
-        <v>6.554</v>
+        <v>6.5540000000000003</v>
       </c>
       <c r="I23">
-        <v>4.753</v>
+        <v>4.7530000000000001</v>
       </c>
       <c r="J23">
-        <v>4.292</v>
+        <v>4.2919999999999998</v>
       </c>
       <c r="K23">
         <v>6.835</v>
       </c>
       <c r="L23">
-        <v>9.256</v>
+        <v>9.2560000000000002</v>
       </c>
       <c r="M23">
         <v>10.994</v>
       </c>
       <c r="O23">
-        <v>9.672000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>9.6720000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2000</v>
       </c>
@@ -3335,7 +3396,7 @@
         <v>12.304</v>
       </c>
       <c r="C24">
-        <v>13.088</v>
+        <v>13.087999999999999</v>
       </c>
       <c r="D24">
         <v>13.167</v>
@@ -3347,36 +3408,36 @@
         <v>11.244</v>
       </c>
       <c r="G24">
-        <v>9.052</v>
+        <v>9.0519999999999996</v>
       </c>
       <c r="H24">
-        <v>6.385</v>
+        <v>6.3849999999999998</v>
       </c>
       <c r="I24">
-        <v>4.783</v>
+        <v>4.7830000000000004</v>
       </c>
       <c r="J24">
-        <v>4.347</v>
+        <v>4.3470000000000004</v>
       </c>
       <c r="K24">
-        <v>6.692</v>
+        <v>6.6920000000000002</v>
       </c>
       <c r="L24">
-        <v>8.866</v>
+        <v>8.8659999999999997</v>
       </c>
       <c r="M24">
         <v>10.96</v>
       </c>
       <c r="O24">
-        <v>9.445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>9.4450000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
       <c r="B25">
-        <v>12.354</v>
+        <v>12.353999999999999</v>
       </c>
       <c r="C25">
         <v>13.22</v>
@@ -3385,22 +3446,22 @@
         <v>13.641</v>
       </c>
       <c r="E25">
-        <v>13.053</v>
+        <v>13.053000000000001</v>
       </c>
       <c r="F25">
-        <v>11.383</v>
+        <v>11.382999999999999</v>
       </c>
       <c r="G25">
-        <v>9.086</v>
+        <v>9.0860000000000003</v>
       </c>
       <c r="H25">
-        <v>6.285</v>
+        <v>6.2850000000000001</v>
       </c>
       <c r="I25">
-        <v>4.936</v>
+        <v>4.9359999999999999</v>
       </c>
       <c r="J25">
-        <v>4.586</v>
+        <v>4.5860000000000003</v>
       </c>
       <c r="K25">
         <v>6.649</v>
@@ -3409,21 +3470,21 @@
         <v>9.077</v>
       </c>
       <c r="M25">
-        <v>10.553</v>
+        <v>10.553000000000001</v>
       </c>
       <c r="O25">
-        <v>9.545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>9.5449999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2002</v>
       </c>
       <c r="B26">
-        <v>12.261</v>
+        <v>12.260999999999999</v>
       </c>
       <c r="C26">
-        <v>13.421</v>
+        <v>13.420999999999999</v>
       </c>
       <c r="D26">
         <v>13.42</v>
@@ -3432,34 +3493,34 @@
         <v>12.413</v>
       </c>
       <c r="F26">
-        <v>11.158</v>
+        <v>11.157999999999999</v>
       </c>
       <c r="G26">
-        <v>9.188000000000001</v>
+        <v>9.1880000000000006</v>
       </c>
       <c r="H26">
-        <v>6.439</v>
+        <v>6.4390000000000001</v>
       </c>
       <c r="I26">
-        <v>4.318</v>
+        <v>4.3179999999999996</v>
       </c>
       <c r="J26">
-        <v>4.029</v>
+        <v>4.0289999999999999</v>
       </c>
       <c r="K26">
-        <v>6.238</v>
+        <v>6.2380000000000004</v>
       </c>
       <c r="L26">
-        <v>8.752000000000001</v>
+        <v>8.7520000000000007</v>
       </c>
       <c r="M26">
-        <v>10.643</v>
+        <v>10.643000000000001</v>
       </c>
       <c r="O26">
-        <v>9.332000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>9.3320000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2003</v>
       </c>
@@ -3470,7 +3531,7 @@
         <v>13.227</v>
       </c>
       <c r="D27">
-        <v>13.425</v>
+        <v>13.425000000000001</v>
       </c>
       <c r="E27">
         <v>12.46</v>
@@ -3479,31 +3540,31 @@
         <v>10.888</v>
       </c>
       <c r="G27">
-        <v>9.114000000000001</v>
+        <v>9.1140000000000008</v>
       </c>
       <c r="H27">
-        <v>6.152</v>
+        <v>6.1520000000000001</v>
       </c>
       <c r="I27">
-        <v>4.517</v>
+        <v>4.5170000000000003</v>
       </c>
       <c r="J27">
         <v>4.048</v>
       </c>
       <c r="K27">
-        <v>5.982</v>
+        <v>5.9820000000000002</v>
       </c>
       <c r="L27">
-        <v>8.569000000000001</v>
+        <v>8.5690000000000008</v>
       </c>
       <c r="M27">
-        <v>10.803</v>
+        <v>10.803000000000001</v>
       </c>
       <c r="O27">
-        <v>9.265000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>9.2650000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2004</v>
       </c>
@@ -3511,7 +3572,7 @@
         <v>12.263</v>
       </c>
       <c r="C28">
-        <v>12.941</v>
+        <v>12.941000000000001</v>
       </c>
       <c r="D28">
         <v>12.993</v>
@@ -3520,78 +3581,78 @@
         <v>12.163</v>
       </c>
       <c r="F28">
-        <v>10.921</v>
+        <v>10.920999999999999</v>
       </c>
       <c r="G28">
-        <v>9.236000000000001</v>
+        <v>9.2360000000000007</v>
       </c>
       <c r="H28">
-        <v>6.507</v>
+        <v>6.5069999999999997</v>
       </c>
       <c r="I28">
-        <v>4.672</v>
+        <v>4.6719999999999997</v>
       </c>
       <c r="J28">
         <v>4.391</v>
       </c>
       <c r="K28">
-        <v>6.396</v>
+        <v>6.3959999999999999</v>
       </c>
       <c r="L28">
-        <v>8.955</v>
+        <v>8.9550000000000001</v>
       </c>
       <c r="M28">
-        <v>10.976</v>
+        <v>10.976000000000001</v>
       </c>
       <c r="O28">
-        <v>9.356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>9.3559999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2005</v>
       </c>
       <c r="B29">
-        <v>11.922</v>
+        <v>11.922000000000001</v>
       </c>
       <c r="C29">
-        <v>12.348</v>
+        <v>12.348000000000001</v>
       </c>
       <c r="D29">
-        <v>12.742</v>
+        <v>12.742000000000001</v>
       </c>
       <c r="E29">
-        <v>12.229</v>
+        <v>12.228999999999999</v>
       </c>
       <c r="F29">
         <v>10.878</v>
       </c>
       <c r="G29">
-        <v>8.805999999999999</v>
+        <v>8.8059999999999992</v>
       </c>
       <c r="H29">
-        <v>5.901</v>
+        <v>5.9009999999999998</v>
       </c>
       <c r="I29">
-        <v>4.206</v>
+        <v>4.2060000000000004</v>
       </c>
       <c r="J29">
-        <v>4.068</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="K29">
-        <v>5.775</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="L29">
-        <v>8.797000000000001</v>
+        <v>8.7970000000000006</v>
       </c>
       <c r="M29">
         <v>10.564</v>
       </c>
       <c r="O29">
-        <v>8.997999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>8.9979999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2006</v>
       </c>
@@ -3599,7 +3660,7 @@
         <v>11.651</v>
       </c>
       <c r="C30">
-        <v>12.354</v>
+        <v>12.353999999999999</v>
       </c>
       <c r="D30">
         <v>12.516</v>
@@ -3611,51 +3672,51 @@
         <v>10.446</v>
       </c>
       <c r="G30">
-        <v>8.409000000000001</v>
+        <v>8.4090000000000007</v>
       </c>
       <c r="H30">
-        <v>5.788</v>
+        <v>5.7880000000000003</v>
       </c>
       <c r="I30">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J30">
-        <v>4.013</v>
+        <v>4.0129999999999999</v>
       </c>
       <c r="K30">
         <v>5.798</v>
       </c>
       <c r="L30">
-        <v>8.125999999999999</v>
+        <v>8.1259999999999994</v>
       </c>
       <c r="M30">
         <v>10.17</v>
       </c>
       <c r="O30">
-        <v>8.779</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>8.7789999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
       <c r="B31">
-        <v>11.861</v>
+        <v>11.861000000000001</v>
       </c>
       <c r="C31">
-        <v>12.579</v>
+        <v>12.579000000000001</v>
       </c>
       <c r="D31">
         <v>12.56</v>
       </c>
       <c r="E31">
-        <v>11.826</v>
+        <v>11.826000000000001</v>
       </c>
       <c r="F31">
-        <v>10.765</v>
+        <v>10.765000000000001</v>
       </c>
       <c r="G31">
-        <v>8.212</v>
+        <v>8.2119999999999997</v>
       </c>
       <c r="H31">
         <v>5.13</v>
@@ -3667,74 +3728,74 @@
         <v>2.819</v>
       </c>
       <c r="K31">
-        <v>4.331</v>
+        <v>4.3310000000000004</v>
       </c>
       <c r="L31">
         <v>8.06</v>
       </c>
       <c r="M31">
-        <v>10.178</v>
+        <v>10.178000000000001</v>
       </c>
       <c r="O31">
-        <v>8.433999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>8.4339999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2008</v>
       </c>
       <c r="B32">
-        <v>12.297</v>
+        <v>12.297000000000001</v>
       </c>
       <c r="C32">
         <v>13.209</v>
       </c>
       <c r="D32">
-        <v>13.534</v>
+        <v>13.534000000000001</v>
       </c>
       <c r="E32">
         <v>12.776</v>
       </c>
       <c r="F32">
-        <v>11.249</v>
+        <v>11.249000000000001</v>
       </c>
       <c r="G32">
-        <v>8.853999999999999</v>
+        <v>8.8539999999999992</v>
       </c>
       <c r="H32">
-        <v>6.058</v>
+        <v>6.0579999999999998</v>
       </c>
       <c r="I32">
-        <v>3.787</v>
+        <v>3.7869999999999999</v>
       </c>
       <c r="J32">
         <v>3.258</v>
       </c>
       <c r="K32">
-        <v>5.772</v>
+        <v>5.7720000000000002</v>
       </c>
       <c r="L32">
-        <v>9.048999999999999</v>
+        <v>9.0489999999999995</v>
       </c>
       <c r="M32">
         <v>10.971</v>
       </c>
       <c r="O32">
-        <v>9.221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>9.2210000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2009</v>
       </c>
       <c r="B33">
-        <v>12.316</v>
+        <v>12.316000000000001</v>
       </c>
       <c r="C33">
         <v>13.214</v>
       </c>
       <c r="D33">
-        <v>13.434</v>
+        <v>13.433999999999999</v>
       </c>
       <c r="E33">
         <v>12.916</v>
@@ -3743,31 +3804,31 @@
         <v>11.477</v>
       </c>
       <c r="G33">
-        <v>9.249000000000001</v>
+        <v>9.2490000000000006</v>
       </c>
       <c r="H33">
-        <v>6.116</v>
+        <v>6.1159999999999997</v>
       </c>
       <c r="I33">
-        <v>4.164</v>
+        <v>4.1639999999999997</v>
       </c>
       <c r="J33">
-        <v>3.761</v>
+        <v>3.7610000000000001</v>
       </c>
       <c r="K33">
-        <v>5.236</v>
+        <v>5.2359999999999998</v>
       </c>
       <c r="L33">
-        <v>8.356999999999999</v>
+        <v>8.3569999999999993</v>
       </c>
       <c r="M33">
-        <v>10.585</v>
+        <v>10.585000000000001</v>
       </c>
       <c r="O33">
-        <v>9.210000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2010</v>
       </c>
@@ -3778,19 +3839,19 @@
         <v>12.962</v>
       </c>
       <c r="D34">
-        <v>13.527</v>
+        <v>13.526999999999999</v>
       </c>
       <c r="E34">
-        <v>12.848</v>
+        <v>12.848000000000001</v>
       </c>
       <c r="F34">
         <v>10.882</v>
       </c>
       <c r="G34">
-        <v>8.365</v>
+        <v>8.3650000000000002</v>
       </c>
       <c r="H34">
-        <v>5.573</v>
+        <v>5.5730000000000004</v>
       </c>
       <c r="I34">
         <v>3.88</v>
@@ -3802,16 +3863,16 @@
         <v>5.484</v>
       </c>
       <c r="L34">
-        <v>8.429</v>
+        <v>8.4290000000000003</v>
       </c>
       <c r="M34">
         <v>10.432</v>
       </c>
       <c r="O34">
-        <v>8.955</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>8.9550000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2011</v>
       </c>
@@ -3822,40 +3883,40 @@
         <v>12.757</v>
       </c>
       <c r="D35">
-        <v>12.826</v>
+        <v>12.826000000000001</v>
       </c>
       <c r="E35">
-        <v>12.447</v>
+        <v>12.446999999999999</v>
       </c>
       <c r="F35">
-        <v>10.742</v>
+        <v>10.742000000000001</v>
       </c>
       <c r="G35">
-        <v>8.544</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="H35">
-        <v>5.404</v>
+        <v>5.4039999999999999</v>
       </c>
       <c r="I35">
-        <v>3.385</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="J35">
-        <v>3.208</v>
+        <v>3.2080000000000002</v>
       </c>
       <c r="K35">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="L35">
         <v>8.516</v>
       </c>
       <c r="M35">
-        <v>10.626</v>
+        <v>10.625999999999999</v>
       </c>
       <c r="O35">
-        <v>8.749000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>8.7490000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2012</v>
       </c>
@@ -3866,7 +3927,7 @@
         <v>12.725</v>
       </c>
       <c r="D36">
-        <v>13.415</v>
+        <v>13.414999999999999</v>
       </c>
       <c r="E36">
         <v>12.872</v>
@@ -3875,75 +3936,75 @@
         <v>11.051</v>
       </c>
       <c r="G36">
-        <v>8.156000000000001</v>
+        <v>8.1560000000000006</v>
       </c>
       <c r="H36">
-        <v>5.091</v>
+        <v>5.0910000000000002</v>
       </c>
       <c r="I36">
-        <v>2.934</v>
+        <v>2.9340000000000002</v>
       </c>
       <c r="J36">
-        <v>2.406</v>
+        <v>2.4060000000000001</v>
       </c>
       <c r="K36">
         <v>4.585</v>
       </c>
       <c r="L36">
-        <v>8.061</v>
+        <v>8.0609999999999999</v>
       </c>
       <c r="M36">
-        <v>10.454</v>
+        <v>10.454000000000001</v>
       </c>
       <c r="O36">
         <v>8.65</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
       <c r="B37">
-        <v>12.021</v>
+        <v>12.021000000000001</v>
       </c>
       <c r="C37">
         <v>13.196</v>
       </c>
       <c r="D37">
-        <v>13.451</v>
+        <v>13.451000000000001</v>
       </c>
       <c r="E37">
-        <v>12.749</v>
+        <v>12.749000000000001</v>
       </c>
       <c r="F37">
         <v>11.254</v>
       </c>
       <c r="G37">
-        <v>8.954000000000001</v>
+        <v>8.9540000000000006</v>
       </c>
       <c r="H37">
-        <v>5.808</v>
+        <v>5.8079999999999998</v>
       </c>
       <c r="I37">
-        <v>4.172</v>
+        <v>4.1719999999999997</v>
       </c>
       <c r="J37">
-        <v>3.783</v>
+        <v>3.7829999999999999</v>
       </c>
       <c r="K37">
-        <v>5.954</v>
+        <v>5.9539999999999997</v>
       </c>
       <c r="L37">
-        <v>8.659000000000001</v>
+        <v>8.6590000000000007</v>
       </c>
       <c r="M37">
-        <v>10.874</v>
+        <v>10.874000000000001</v>
       </c>
       <c r="O37">
-        <v>9.215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>9.2149999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -3954,28 +4015,28 @@
         <v>12.564</v>
       </c>
       <c r="D38">
-        <v>12.951</v>
+        <v>12.951000000000001</v>
       </c>
       <c r="E38">
         <v>12.429</v>
       </c>
       <c r="F38">
-        <v>11.046</v>
+        <v>11.045999999999999</v>
       </c>
       <c r="G38">
-        <v>8.765000000000001</v>
+        <v>8.7650000000000006</v>
       </c>
       <c r="H38">
-        <v>5.964</v>
+        <v>5.9640000000000004</v>
       </c>
       <c r="I38">
-        <v>4.368</v>
+        <v>4.3680000000000003</v>
       </c>
       <c r="J38">
         <v>3.742</v>
       </c>
       <c r="K38">
-        <v>5.696</v>
+        <v>5.6959999999999997</v>
       </c>
       <c r="L38">
         <v>8.75</v>
@@ -3984,10 +4045,10 @@
         <v>10.895</v>
       </c>
       <c r="O38">
-        <v>9.085000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>9.0850000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
@@ -4007,31 +4068,31 @@
         <v>10.895</v>
       </c>
       <c r="G39">
-        <v>8.705</v>
+        <v>8.7050000000000001</v>
       </c>
       <c r="H39">
-        <v>5.659</v>
+        <v>5.6589999999999998</v>
       </c>
       <c r="I39">
-        <v>3.626</v>
+        <v>3.6259999999999999</v>
       </c>
       <c r="J39">
-        <v>3.422</v>
+        <v>3.4220000000000002</v>
       </c>
       <c r="K39">
-        <v>5.488</v>
+        <v>5.4880000000000004</v>
       </c>
       <c r="L39">
         <v>8.48</v>
       </c>
       <c r="M39">
-        <v>10.639</v>
+        <v>10.638999999999999</v>
       </c>
       <c r="O39">
-        <v>8.895</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>8.8949999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
@@ -4039,28 +4100,28 @@
         <v>11.802</v>
       </c>
       <c r="C40">
-        <v>12.428</v>
+        <v>12.428000000000001</v>
       </c>
       <c r="D40">
-        <v>12.614</v>
+        <v>12.614000000000001</v>
       </c>
       <c r="E40">
-        <v>11.985</v>
+        <v>11.984999999999999</v>
       </c>
       <c r="F40">
-        <v>10.249</v>
+        <v>10.249000000000001</v>
       </c>
       <c r="G40">
-        <v>8.209</v>
+        <v>8.2089999999999996</v>
       </c>
       <c r="H40">
-        <v>5.366</v>
+        <v>5.3659999999999997</v>
       </c>
       <c r="I40">
         <v>3.306</v>
       </c>
       <c r="J40">
-        <v>2.913</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="K40">
         <v>4.399</v>
@@ -4069,13 +4130,13 @@
         <v>7.01</v>
       </c>
       <c r="M40">
-        <v>9.619999999999999</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="O40">
-        <v>8.311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>8.3109999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2017</v>
       </c>
@@ -4086,40 +4147,40 @@
         <v>12.32</v>
       </c>
       <c r="D41">
-        <v>12.614</v>
+        <v>12.614000000000001</v>
       </c>
       <c r="E41">
         <v>12.259</v>
       </c>
       <c r="F41">
-        <v>11.005</v>
+        <v>11.005000000000001</v>
       </c>
       <c r="G41">
-        <v>8.628</v>
+        <v>8.6280000000000001</v>
       </c>
       <c r="H41">
         <v>5.65</v>
       </c>
       <c r="I41">
-        <v>3.638</v>
+        <v>3.6379999999999999</v>
       </c>
       <c r="J41">
-        <v>3.348</v>
+        <v>3.3479999999999999</v>
       </c>
       <c r="K41">
-        <v>5.305</v>
+        <v>5.3049999999999997</v>
       </c>
       <c r="L41">
-        <v>8.084</v>
+        <v>8.0839999999999996</v>
       </c>
       <c r="M41">
         <v>10.262</v>
       </c>
       <c r="O41">
-        <v>8.683999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>8.6839999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2018</v>
       </c>
@@ -4127,10 +4188,10 @@
         <v>11.637</v>
       </c>
       <c r="C42">
-        <v>12.223</v>
+        <v>12.223000000000001</v>
       </c>
       <c r="D42">
-        <v>12.614</v>
+        <v>12.614000000000001</v>
       </c>
       <c r="E42">
         <v>12.247</v>
@@ -4139,42 +4200,42 @@
         <v>10.766</v>
       </c>
       <c r="G42">
-        <v>8.708</v>
+        <v>8.7080000000000002</v>
       </c>
       <c r="H42">
-        <v>5.713</v>
+        <v>5.7130000000000001</v>
       </c>
       <c r="I42">
-        <v>3.889</v>
+        <v>3.8889999999999998</v>
       </c>
       <c r="J42">
-        <v>3.296</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="K42">
-        <v>4.519</v>
+        <v>4.5190000000000001</v>
       </c>
       <c r="L42">
-        <v>8.362</v>
+        <v>8.3620000000000001</v>
       </c>
       <c r="M42">
         <v>10.414</v>
       </c>
       <c r="O42">
-        <v>8.676</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>8.6760000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2019</v>
       </c>
       <c r="B43">
-        <v>12.104</v>
+        <v>12.103999999999999</v>
       </c>
       <c r="C43">
         <v>12.693</v>
       </c>
       <c r="D43">
-        <v>12.806</v>
+        <v>12.805999999999999</v>
       </c>
       <c r="O43" s="2">
         <v>12.529</v>
@@ -4186,14 +4247,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4235,50 +4299,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1978</v>
       </c>
       <c r="L2">
-        <v>15.896</v>
+        <v>15.896000000000001</v>
       </c>
       <c r="M2">
         <v>10.395</v>
       </c>
       <c r="O2" s="2">
-        <v>13.101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.101000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1979</v>
       </c>
       <c r="B3">
-        <v>5.402</v>
+        <v>5.4020000000000001</v>
       </c>
       <c r="C3">
         <v>3.141</v>
       </c>
       <c r="D3">
-        <v>3.999</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="E3">
-        <v>7.486</v>
+        <v>7.4859999999999998</v>
       </c>
       <c r="F3">
         <v>10.827</v>
       </c>
       <c r="G3">
-        <v>14.187</v>
+        <v>14.186999999999999</v>
       </c>
       <c r="H3">
-        <v>16.517</v>
+        <v>16.516999999999999</v>
       </c>
       <c r="I3">
         <v>17.698</v>
       </c>
       <c r="J3">
-        <v>18.196</v>
+        <v>18.196000000000002</v>
       </c>
       <c r="K3">
         <v>17.82</v>
@@ -4287,30 +4351,30 @@
         <v>15.337</v>
       </c>
       <c r="M3">
-        <v>9.236000000000001</v>
+        <v>9.2360000000000007</v>
       </c>
       <c r="O3">
         <v>11.7</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1980</v>
       </c>
       <c r="B4">
-        <v>4.562</v>
+        <v>4.5620000000000003</v>
       </c>
       <c r="C4">
-        <v>2.818</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="D4">
-        <v>3.295</v>
+        <v>3.2949999999999999</v>
       </c>
       <c r="E4">
-        <v>5.405</v>
+        <v>5.4050000000000002</v>
       </c>
       <c r="F4">
-        <v>8.856999999999999</v>
+        <v>8.8569999999999993</v>
       </c>
       <c r="G4">
         <v>12.49</v>
@@ -4325,54 +4389,54 @@
         <v>18.817</v>
       </c>
       <c r="K4">
-        <v>18.568</v>
+        <v>18.568000000000001</v>
       </c>
       <c r="L4">
-        <v>16.133</v>
+        <v>16.132999999999999</v>
       </c>
       <c r="M4">
-        <v>10.156</v>
+        <v>10.156000000000001</v>
       </c>
       <c r="O4">
         <v>11.23</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1981</v>
       </c>
       <c r="B5">
-        <v>4.412</v>
+        <v>4.4119999999999999</v>
       </c>
       <c r="C5">
-        <v>2.873</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="D5">
-        <v>3.392</v>
+        <v>3.3919999999999999</v>
       </c>
       <c r="E5">
-        <v>5.838</v>
+        <v>5.8380000000000001</v>
       </c>
       <c r="F5">
-        <v>9.355</v>
+        <v>9.3550000000000004</v>
       </c>
       <c r="G5">
         <v>13.109</v>
       </c>
       <c r="H5">
-        <v>16.039</v>
+        <v>16.039000000000001</v>
       </c>
       <c r="I5">
-        <v>17.737</v>
+        <v>17.736999999999998</v>
       </c>
       <c r="J5">
-        <v>18.597</v>
+        <v>18.597000000000001</v>
       </c>
       <c r="K5">
         <v>18.294</v>
       </c>
       <c r="L5">
-        <v>16.111</v>
+        <v>16.111000000000001</v>
       </c>
       <c r="M5">
         <v>10.895</v>
@@ -4381,7 +4445,7 @@
         <v>11.435</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1982</v>
       </c>
@@ -4392,13 +4456,13 @@
         <v>3.129</v>
       </c>
       <c r="D6">
-        <v>4.288</v>
+        <v>4.2880000000000003</v>
       </c>
       <c r="E6">
-        <v>7.723</v>
+        <v>7.7229999999999999</v>
       </c>
       <c r="F6">
-        <v>10.758</v>
+        <v>10.757999999999999</v>
       </c>
       <c r="G6">
         <v>13.417</v>
@@ -4407,30 +4471,30 @@
         <v>15.872</v>
       </c>
       <c r="I6">
-        <v>17.789</v>
+        <v>17.789000000000001</v>
       </c>
       <c r="J6">
-        <v>18.353</v>
+        <v>18.353000000000002</v>
       </c>
       <c r="K6">
-        <v>17.789</v>
+        <v>17.789000000000001</v>
       </c>
       <c r="L6">
-        <v>15.537</v>
+        <v>15.537000000000001</v>
       </c>
       <c r="M6">
-        <v>9.215999999999999</v>
+        <v>9.2159999999999993</v>
       </c>
       <c r="O6">
         <v>11.64</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1983</v>
       </c>
       <c r="B7">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C7">
         <v>3.07</v>
@@ -4442,51 +4506,51 @@
         <v>6.47</v>
       </c>
       <c r="F7">
-        <v>9.526</v>
+        <v>9.5259999999999998</v>
       </c>
       <c r="G7">
-        <v>12.643</v>
+        <v>12.643000000000001</v>
       </c>
       <c r="H7">
-        <v>15.467</v>
+        <v>15.467000000000001</v>
       </c>
       <c r="I7">
-        <v>17.251</v>
+        <v>17.251000000000001</v>
       </c>
       <c r="J7">
-        <v>18.585</v>
+        <v>18.585000000000001</v>
       </c>
       <c r="K7">
-        <v>17.915</v>
+        <v>17.914999999999999</v>
       </c>
       <c r="L7">
-        <v>16.014</v>
+        <v>16.013999999999999</v>
       </c>
       <c r="M7">
         <v>10.394</v>
       </c>
       <c r="O7">
-        <v>11.389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.388999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1984</v>
       </c>
       <c r="B8">
-        <v>4.779</v>
+        <v>4.7789999999999999</v>
       </c>
       <c r="C8">
         <v>2.677</v>
       </c>
       <c r="D8">
-        <v>3.612</v>
+        <v>3.6120000000000001</v>
       </c>
       <c r="E8">
-        <v>6.422</v>
+        <v>6.4219999999999997</v>
       </c>
       <c r="F8">
-        <v>9.747999999999999</v>
+        <v>9.7479999999999993</v>
       </c>
       <c r="G8">
         <v>13.231</v>
@@ -4495,10 +4559,10 @@
         <v>16.395</v>
       </c>
       <c r="I8">
-        <v>17.928</v>
+        <v>17.928000000000001</v>
       </c>
       <c r="J8">
-        <v>18.171</v>
+        <v>18.170999999999999</v>
       </c>
       <c r="K8">
         <v>17.573</v>
@@ -4507,45 +4571,45 @@
         <v>16.134</v>
       </c>
       <c r="M8">
-        <v>10.473</v>
+        <v>10.473000000000001</v>
       </c>
       <c r="O8">
-        <v>11.454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.454000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1985</v>
       </c>
       <c r="B9">
-        <v>4.455</v>
+        <v>4.4550000000000001</v>
       </c>
       <c r="C9">
-        <v>2.836</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="D9">
-        <v>3.717</v>
+        <v>3.7170000000000001</v>
       </c>
       <c r="E9">
-        <v>6.493</v>
+        <v>6.4930000000000003</v>
       </c>
       <c r="F9">
         <v>10.153</v>
       </c>
       <c r="G9">
-        <v>13.428</v>
+        <v>13.428000000000001</v>
       </c>
       <c r="H9">
         <v>15.721</v>
       </c>
       <c r="I9">
-        <v>17.632</v>
+        <v>17.632000000000001</v>
       </c>
       <c r="J9">
-        <v>18.703</v>
+        <v>18.702999999999999</v>
       </c>
       <c r="K9">
-        <v>18.204</v>
+        <v>18.204000000000001</v>
       </c>
       <c r="L9">
         <v>16.14</v>
@@ -4557,83 +4621,83 @@
         <v>11.618</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1986</v>
       </c>
       <c r="B10">
-        <v>5.422</v>
+        <v>5.4219999999999997</v>
       </c>
       <c r="C10">
-        <v>3.193</v>
+        <v>3.1930000000000001</v>
       </c>
       <c r="D10">
         <v>3.698</v>
       </c>
       <c r="E10">
-        <v>6.386</v>
+        <v>6.3860000000000001</v>
       </c>
       <c r="F10">
-        <v>9.295999999999999</v>
+        <v>9.2959999999999994</v>
       </c>
       <c r="G10">
-        <v>12.687</v>
+        <v>12.686999999999999</v>
       </c>
       <c r="H10">
         <v>15.317</v>
       </c>
       <c r="I10">
-        <v>16.999</v>
+        <v>16.998999999999999</v>
       </c>
       <c r="J10">
         <v>17.683</v>
       </c>
       <c r="K10">
-        <v>17.184</v>
+        <v>17.184000000000001</v>
       </c>
       <c r="L10">
         <v>15.007</v>
       </c>
       <c r="M10">
-        <v>9.654</v>
+        <v>9.6539999999999999</v>
       </c>
       <c r="O10">
-        <v>11.088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.087999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1987</v>
       </c>
       <c r="B11">
-        <v>5.126</v>
+        <v>5.1260000000000003</v>
       </c>
       <c r="C11">
         <v>3.254</v>
       </c>
       <c r="D11">
-        <v>4.113</v>
+        <v>4.1130000000000004</v>
       </c>
       <c r="E11">
-        <v>6.797</v>
+        <v>6.7969999999999997</v>
       </c>
       <c r="F11">
-        <v>9.694000000000001</v>
+        <v>9.6940000000000008</v>
       </c>
       <c r="G11">
-        <v>12.684</v>
+        <v>12.683999999999999</v>
       </c>
       <c r="H11">
-        <v>15.752</v>
+        <v>15.752000000000001</v>
       </c>
       <c r="I11">
-        <v>17.598</v>
+        <v>17.597999999999999</v>
       </c>
       <c r="J11">
-        <v>18.246</v>
+        <v>18.245999999999999</v>
       </c>
       <c r="K11">
-        <v>17.674</v>
+        <v>17.673999999999999</v>
       </c>
       <c r="L11">
         <v>15.584</v>
@@ -4642,36 +4706,36 @@
         <v>11.554</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1988</v>
       </c>
       <c r="C12">
-        <v>2.886</v>
+        <v>2.8860000000000001</v>
       </c>
       <c r="D12">
-        <v>3.966</v>
+        <v>3.9660000000000002</v>
       </c>
       <c r="E12">
-        <v>6.288</v>
+        <v>6.2880000000000003</v>
       </c>
       <c r="F12">
-        <v>9.602</v>
+        <v>9.6020000000000003</v>
       </c>
       <c r="G12">
         <v>13.093</v>
       </c>
       <c r="H12">
-        <v>15.749</v>
+        <v>15.749000000000001</v>
       </c>
       <c r="I12">
         <v>17.561</v>
       </c>
       <c r="J12">
-        <v>18.307</v>
+        <v>18.306999999999999</v>
       </c>
       <c r="K12">
-        <v>18.361</v>
+        <v>18.361000000000001</v>
       </c>
       <c r="L12">
         <v>16.148</v>
@@ -4683,15 +4747,15 @@
         <v>12.131</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1989</v>
       </c>
       <c r="B13">
-        <v>4.737</v>
+        <v>4.7370000000000001</v>
       </c>
       <c r="C13">
-        <v>2.978</v>
+        <v>2.9780000000000002</v>
       </c>
       <c r="D13">
         <v>3.927</v>
@@ -4700,7 +4764,7 @@
         <v>6.306</v>
       </c>
       <c r="F13">
-        <v>10.297</v>
+        <v>10.297000000000001</v>
       </c>
       <c r="G13">
         <v>13.58</v>
@@ -4709,25 +4773,25 @@
         <v>15.711</v>
       </c>
       <c r="I13">
-        <v>17.466</v>
+        <v>17.466000000000001</v>
       </c>
       <c r="J13">
-        <v>18.121</v>
+        <v>18.120999999999999</v>
       </c>
       <c r="K13">
-        <v>17.856</v>
+        <v>17.856000000000002</v>
       </c>
       <c r="L13">
         <v>15.734</v>
       </c>
       <c r="M13">
-        <v>9.837999999999999</v>
+        <v>9.8379999999999992</v>
       </c>
       <c r="O13">
         <v>11.426</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1990</v>
       </c>
@@ -4738,13 +4802,13 @@
         <v>3.036</v>
       </c>
       <c r="D14">
-        <v>3.966</v>
+        <v>3.9660000000000002</v>
       </c>
       <c r="E14">
         <v>7</v>
       </c>
       <c r="F14">
-        <v>9.715999999999999</v>
+        <v>9.7159999999999993</v>
       </c>
       <c r="G14">
         <v>13.083</v>
@@ -4756,7 +4820,7 @@
         <v>17.567</v>
       </c>
       <c r="J14">
-        <v>18.193</v>
+        <v>18.193000000000001</v>
       </c>
       <c r="K14">
         <v>17.945</v>
@@ -4765,45 +4829,45 @@
         <v>15.468</v>
       </c>
       <c r="M14">
-        <v>9.954000000000001</v>
+        <v>9.9540000000000006</v>
       </c>
       <c r="O14">
         <v>11.41</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1991</v>
       </c>
       <c r="B15">
-        <v>5.338</v>
+        <v>5.3380000000000001</v>
       </c>
       <c r="C15">
         <v>3.161</v>
       </c>
       <c r="D15">
-        <v>3.807</v>
+        <v>3.8069999999999999</v>
       </c>
       <c r="E15">
-        <v>7.053</v>
+        <v>7.0529999999999999</v>
       </c>
       <c r="F15">
         <v>10.279</v>
       </c>
       <c r="G15">
-        <v>13.066</v>
+        <v>13.066000000000001</v>
       </c>
       <c r="H15">
         <v>15.55</v>
       </c>
       <c r="I15">
-        <v>17.719</v>
+        <v>17.719000000000001</v>
       </c>
       <c r="J15">
-        <v>18.313</v>
+        <v>18.312999999999999</v>
       </c>
       <c r="K15">
-        <v>17.917</v>
+        <v>17.917000000000002</v>
       </c>
       <c r="L15">
         <v>15.584</v>
@@ -4815,27 +4879,27 @@
         <v>11.545</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1992</v>
       </c>
       <c r="B16">
-        <v>4.749</v>
+        <v>4.7489999999999997</v>
       </c>
       <c r="C16">
-        <v>2.837</v>
+        <v>2.8370000000000002</v>
       </c>
       <c r="D16">
         <v>3.573</v>
       </c>
       <c r="E16">
-        <v>6.794</v>
+        <v>6.7939999999999996</v>
       </c>
       <c r="F16">
-        <v>9.925000000000001</v>
+        <v>9.9250000000000007</v>
       </c>
       <c r="G16">
-        <v>12.809</v>
+        <v>12.808999999999999</v>
       </c>
       <c r="H16">
         <v>15.894</v>
@@ -4844,10 +4908,10 @@
         <v>17.727</v>
       </c>
       <c r="J16">
-        <v>18.147</v>
+        <v>18.146999999999998</v>
       </c>
       <c r="K16">
-        <v>17.934</v>
+        <v>17.934000000000001</v>
       </c>
       <c r="L16">
         <v>15.895</v>
@@ -4856,27 +4920,27 @@
         <v>10.206</v>
       </c>
       <c r="O16">
-        <v>11.399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.398999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1993</v>
       </c>
       <c r="B17">
-        <v>4.409</v>
+        <v>4.4089999999999998</v>
       </c>
       <c r="C17">
-        <v>2.482</v>
+        <v>2.4820000000000002</v>
       </c>
       <c r="D17">
-        <v>3.668</v>
+        <v>3.6680000000000001</v>
       </c>
       <c r="E17">
-        <v>6.652</v>
+        <v>6.6520000000000001</v>
       </c>
       <c r="F17">
-        <v>10.104</v>
+        <v>10.103999999999999</v>
       </c>
       <c r="G17">
         <v>13.147</v>
@@ -4885,48 +4949,48 @@
         <v>15.855</v>
       </c>
       <c r="I17">
-        <v>17.492</v>
+        <v>17.492000000000001</v>
       </c>
       <c r="J17">
-        <v>18.543</v>
+        <v>18.542999999999999</v>
       </c>
       <c r="K17">
         <v>18.128</v>
       </c>
       <c r="L17">
-        <v>16.042</v>
+        <v>16.042000000000002</v>
       </c>
       <c r="M17">
-        <v>9.933</v>
+        <v>9.9329999999999998</v>
       </c>
       <c r="O17">
         <v>11.42</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1994</v>
       </c>
       <c r="B18">
-        <v>4.966</v>
+        <v>4.9660000000000002</v>
       </c>
       <c r="C18">
-        <v>3.197</v>
+        <v>3.1970000000000001</v>
       </c>
       <c r="D18">
-        <v>4.549</v>
+        <v>4.5490000000000004</v>
       </c>
       <c r="E18">
-        <v>7.222</v>
+        <v>7.2220000000000004</v>
       </c>
       <c r="F18">
-        <v>10.408</v>
+        <v>10.407999999999999</v>
       </c>
       <c r="G18">
         <v>13.56</v>
       </c>
       <c r="H18">
-        <v>16.296</v>
+        <v>16.295999999999999</v>
       </c>
       <c r="I18">
         <v>17.84</v>
@@ -4941,27 +5005,27 @@
         <v>15.88</v>
       </c>
       <c r="M18">
-        <v>10.101</v>
+        <v>10.101000000000001</v>
       </c>
       <c r="O18">
-        <v>11.774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.773999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1995</v>
       </c>
       <c r="B19">
-        <v>5.636</v>
+        <v>5.6360000000000001</v>
       </c>
       <c r="C19">
-        <v>3.561</v>
+        <v>3.5609999999999999</v>
       </c>
       <c r="D19">
-        <v>4.626</v>
+        <v>4.6260000000000003</v>
       </c>
       <c r="E19">
-        <v>7.268</v>
+        <v>7.2679999999999998</v>
       </c>
       <c r="F19">
         <v>10.416</v>
@@ -4976,7 +5040,7 @@
         <v>17.78</v>
       </c>
       <c r="J19">
-        <v>18.373</v>
+        <v>18.373000000000001</v>
       </c>
       <c r="K19">
         <v>18.03</v>
@@ -4991,18 +5055,18 @@
         <v>11.795</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1996</v>
       </c>
       <c r="B20">
-        <v>5.871</v>
+        <v>5.8710000000000004</v>
       </c>
       <c r="C20">
-        <v>2.985</v>
+        <v>2.9849999999999999</v>
       </c>
       <c r="D20">
-        <v>4.184</v>
+        <v>4.1840000000000002</v>
       </c>
       <c r="E20">
         <v>7.28</v>
@@ -5020,7 +5084,7 @@
         <v>17.741</v>
       </c>
       <c r="J20">
-        <v>18.632</v>
+        <v>18.632000000000001</v>
       </c>
       <c r="K20">
         <v>17.965</v>
@@ -5029,48 +5093,48 @@
         <v>15.718</v>
       </c>
       <c r="M20">
-        <v>9.653</v>
+        <v>9.6530000000000005</v>
       </c>
       <c r="O20">
         <v>11.769</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1997</v>
       </c>
       <c r="B21">
-        <v>4.197</v>
+        <v>4.1970000000000001</v>
       </c>
       <c r="C21">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D21">
-        <v>3.457</v>
+        <v>3.4569999999999999</v>
       </c>
       <c r="E21">
         <v>6.492</v>
       </c>
       <c r="F21">
-        <v>10.124</v>
+        <v>10.124000000000001</v>
       </c>
       <c r="G21">
         <v>13.116</v>
       </c>
       <c r="H21">
-        <v>15.921</v>
+        <v>15.920999999999999</v>
       </c>
       <c r="I21">
-        <v>17.684</v>
+        <v>17.684000000000001</v>
       </c>
       <c r="J21">
         <v>18.596</v>
       </c>
       <c r="K21">
-        <v>17.993</v>
+        <v>17.992999999999999</v>
       </c>
       <c r="L21">
-        <v>15.733</v>
+        <v>15.733000000000001</v>
       </c>
       <c r="M21">
         <v>10.285</v>
@@ -5079,36 +5143,36 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1998</v>
       </c>
       <c r="B22">
-        <v>4.465</v>
+        <v>4.4649999999999999</v>
       </c>
       <c r="C22">
-        <v>2.989</v>
+        <v>2.9889999999999999</v>
       </c>
       <c r="D22">
-        <v>4.108</v>
+        <v>4.1079999999999997</v>
       </c>
       <c r="E22">
-        <v>6.854</v>
+        <v>6.8540000000000001</v>
       </c>
       <c r="F22">
-        <v>10.328</v>
+        <v>10.327999999999999</v>
       </c>
       <c r="G22">
-        <v>13.313</v>
+        <v>13.313000000000001</v>
       </c>
       <c r="H22">
-        <v>15.963</v>
+        <v>15.962999999999999</v>
       </c>
       <c r="I22">
         <v>17.881</v>
       </c>
       <c r="J22">
-        <v>18.903</v>
+        <v>18.902999999999999</v>
       </c>
       <c r="K22">
         <v>18.66</v>
@@ -5123,36 +5187,36 @@
         <v>11.738</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1999</v>
       </c>
       <c r="B23">
-        <v>4.816</v>
+        <v>4.8159999999999998</v>
       </c>
       <c r="C23">
-        <v>2.966</v>
+        <v>2.9660000000000002</v>
       </c>
       <c r="D23">
-        <v>3.978</v>
+        <v>3.9780000000000002</v>
       </c>
       <c r="E23">
-        <v>6.892</v>
+        <v>6.8920000000000003</v>
       </c>
       <c r="F23">
-        <v>10.265</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="G23">
-        <v>13.649</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="H23">
         <v>16.282</v>
       </c>
       <c r="I23">
-        <v>17.958</v>
+        <v>17.957999999999998</v>
       </c>
       <c r="J23">
-        <v>18.696</v>
+        <v>18.696000000000002</v>
       </c>
       <c r="K23">
         <v>18.352</v>
@@ -5164,45 +5228,45 @@
         <v>10.722</v>
       </c>
       <c r="O23">
-        <v>11.761</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.760999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2000</v>
       </c>
       <c r="B24">
-        <v>4.749</v>
+        <v>4.7489999999999997</v>
       </c>
       <c r="C24">
         <v>2.907</v>
       </c>
       <c r="D24">
-        <v>4.086</v>
+        <v>4.0860000000000003</v>
       </c>
       <c r="E24">
-        <v>7.132</v>
+        <v>7.1319999999999997</v>
       </c>
       <c r="F24">
-        <v>10.921</v>
+        <v>10.920999999999999</v>
       </c>
       <c r="G24">
-        <v>13.893</v>
+        <v>13.893000000000001</v>
       </c>
       <c r="H24">
-        <v>16.098</v>
+        <v>16.097999999999999</v>
       </c>
       <c r="I24">
         <v>18.206</v>
       </c>
       <c r="J24">
-        <v>18.888</v>
+        <v>18.888000000000002</v>
       </c>
       <c r="K24">
         <v>18.131</v>
       </c>
       <c r="L24">
-        <v>15.758</v>
+        <v>15.757999999999999</v>
       </c>
       <c r="M24">
         <v>9.91</v>
@@ -5211,39 +5275,39 @@
         <v>11.747</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
       <c r="B25">
-        <v>5.233</v>
+        <v>5.2329999999999997</v>
       </c>
       <c r="C25">
         <v>3.65</v>
       </c>
       <c r="D25">
-        <v>4.731</v>
+        <v>4.7309999999999999</v>
       </c>
       <c r="E25">
-        <v>7.044</v>
+        <v>7.0439999999999996</v>
       </c>
       <c r="F25">
         <v>10.33</v>
       </c>
       <c r="G25">
-        <v>13.418</v>
+        <v>13.417999999999999</v>
       </c>
       <c r="H25">
         <v>15.852</v>
       </c>
       <c r="I25">
-        <v>17.423</v>
+        <v>17.422999999999998</v>
       </c>
       <c r="J25">
-        <v>18.175</v>
+        <v>18.175000000000001</v>
       </c>
       <c r="K25">
-        <v>17.726</v>
+        <v>17.725999999999999</v>
       </c>
       <c r="L25">
         <v>15.61</v>
@@ -5255,7 +5319,7 @@
         <v>11.673</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2002</v>
       </c>
@@ -5266,19 +5330,19 @@
         <v>2.96</v>
       </c>
       <c r="D26">
-        <v>3.748</v>
+        <v>3.7480000000000002</v>
       </c>
       <c r="E26">
-        <v>6.328</v>
+        <v>6.3280000000000003</v>
       </c>
       <c r="F26">
-        <v>9.512</v>
+        <v>9.5120000000000005</v>
       </c>
       <c r="G26">
-        <v>12.376</v>
+        <v>12.375999999999999</v>
       </c>
       <c r="H26">
-        <v>15.415</v>
+        <v>15.414999999999999</v>
       </c>
       <c r="I26">
         <v>17.067</v>
@@ -5290,7 +5354,7 @@
         <v>17.866</v>
       </c>
       <c r="L26">
-        <v>15.406</v>
+        <v>15.406000000000001</v>
       </c>
       <c r="M26">
         <v>10.785</v>
@@ -5299,36 +5363,36 @@
         <v>11.222</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2003</v>
       </c>
       <c r="B27">
-        <v>5.773</v>
+        <v>5.7729999999999997</v>
       </c>
       <c r="C27">
-        <v>3.789</v>
+        <v>3.7890000000000001</v>
       </c>
       <c r="D27">
         <v>4.444</v>
       </c>
       <c r="E27">
-        <v>7.208</v>
+        <v>7.2080000000000002</v>
       </c>
       <c r="F27">
-        <v>10.736</v>
+        <v>10.736000000000001</v>
       </c>
       <c r="G27">
-        <v>13.985</v>
+        <v>13.984999999999999</v>
       </c>
       <c r="H27">
-        <v>16.402</v>
+        <v>16.402000000000001</v>
       </c>
       <c r="I27">
-        <v>17.582</v>
+        <v>17.582000000000001</v>
       </c>
       <c r="J27">
-        <v>18.298</v>
+        <v>18.297999999999998</v>
       </c>
       <c r="K27">
         <v>18.198</v>
@@ -5340,10 +5404,10 @@
         <v>10.564</v>
       </c>
       <c r="O27">
-        <v>11.969</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>11.968999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2004</v>
       </c>
@@ -5351,10 +5415,10 @@
         <v>5.59</v>
       </c>
       <c r="C28">
-        <v>3.584</v>
+        <v>3.5840000000000001</v>
       </c>
       <c r="D28">
-        <v>4.526</v>
+        <v>4.5259999999999998</v>
       </c>
       <c r="E28">
         <v>7.28</v>
@@ -5366,39 +5430,39 @@
         <v>13.78</v>
       </c>
       <c r="H28">
-        <v>16.333</v>
+        <v>16.332999999999998</v>
       </c>
       <c r="I28">
-        <v>18.01</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="J28">
         <v>18.919</v>
       </c>
       <c r="K28">
-        <v>18.457</v>
+        <v>18.457000000000001</v>
       </c>
       <c r="L28">
-        <v>16.085</v>
+        <v>16.085000000000001</v>
       </c>
       <c r="M28">
-        <v>10.229</v>
+        <v>10.228999999999999</v>
       </c>
       <c r="O28">
         <v>11.961</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2005</v>
       </c>
       <c r="B29">
-        <v>4.752</v>
+        <v>4.7519999999999998</v>
       </c>
       <c r="C29">
         <v>2.97</v>
       </c>
       <c r="D29">
-        <v>4.082</v>
+        <v>4.0819999999999999</v>
       </c>
       <c r="E29">
         <v>7.032</v>
@@ -5410,10 +5474,10 @@
         <v>13.291</v>
       </c>
       <c r="H29">
-        <v>16.158</v>
+        <v>16.158000000000001</v>
       </c>
       <c r="I29">
-        <v>17.922</v>
+        <v>17.922000000000001</v>
       </c>
       <c r="J29">
         <v>18.805</v>
@@ -5422,7 +5486,7 @@
         <v>18.477</v>
       </c>
       <c r="L29">
-        <v>16.316</v>
+        <v>16.315999999999999</v>
       </c>
       <c r="M29">
         <v>9.68</v>
@@ -5431,51 +5495,51 @@
         <v>11.695</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2006</v>
       </c>
       <c r="B30">
-        <v>4.164</v>
+        <v>4.1639999999999997</v>
       </c>
       <c r="C30">
-        <v>2.651</v>
+        <v>2.6509999999999998</v>
       </c>
       <c r="D30">
-        <v>3.215</v>
+        <v>3.2149999999999999</v>
       </c>
       <c r="E30">
         <v>6.01</v>
       </c>
       <c r="F30">
-        <v>9.456</v>
+        <v>9.4559999999999995</v>
       </c>
       <c r="G30">
-        <v>13.345</v>
+        <v>13.345000000000001</v>
       </c>
       <c r="H30">
-        <v>16.114</v>
+        <v>16.114000000000001</v>
       </c>
       <c r="I30">
-        <v>18.098</v>
+        <v>18.097999999999999</v>
       </c>
       <c r="J30">
-        <v>19.094</v>
+        <v>19.094000000000001</v>
       </c>
       <c r="K30">
-        <v>18.733</v>
+        <v>18.733000000000001</v>
       </c>
       <c r="L30">
         <v>16.23</v>
       </c>
       <c r="M30">
-        <v>9.853999999999999</v>
+        <v>9.8539999999999992</v>
       </c>
       <c r="O30">
         <v>11.461</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
@@ -5483,66 +5547,66 @@
         <v>4.673</v>
       </c>
       <c r="C31">
-        <v>2.905</v>
+        <v>2.9049999999999998</v>
       </c>
       <c r="D31">
         <v>3.835</v>
       </c>
       <c r="E31">
-        <v>6.418</v>
+        <v>6.4180000000000001</v>
       </c>
       <c r="F31">
-        <v>9.648</v>
+        <v>9.6479999999999997</v>
       </c>
       <c r="G31">
-        <v>13.287</v>
+        <v>13.287000000000001</v>
       </c>
       <c r="H31">
         <v>15.956</v>
       </c>
       <c r="I31">
-        <v>17.682</v>
+        <v>17.681999999999999</v>
       </c>
       <c r="J31">
-        <v>18.861</v>
+        <v>18.861000000000001</v>
       </c>
       <c r="K31">
-        <v>18.508</v>
+        <v>18.507999999999999</v>
       </c>
       <c r="L31">
-        <v>15.892</v>
+        <v>15.891999999999999</v>
       </c>
       <c r="M31">
         <v>11.981</v>
       </c>
       <c r="O31">
-        <v>11.687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>11.686999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2008</v>
       </c>
       <c r="B32">
-        <v>6.414</v>
+        <v>6.4139999999999997</v>
       </c>
       <c r="C32">
         <v>3.895</v>
       </c>
       <c r="D32">
-        <v>5.284</v>
+        <v>5.2839999999999998</v>
       </c>
       <c r="E32">
-        <v>8.242000000000001</v>
+        <v>8.2420000000000009</v>
       </c>
       <c r="F32">
-        <v>11.049</v>
+        <v>11.048999999999999</v>
       </c>
       <c r="G32">
-        <v>14.062</v>
+        <v>14.061999999999999</v>
       </c>
       <c r="H32">
-        <v>16.095</v>
+        <v>16.094999999999999</v>
       </c>
       <c r="I32">
         <v>17.645</v>
@@ -5554,27 +5618,27 @@
         <v>17.994</v>
       </c>
       <c r="L32">
-        <v>16.248</v>
+        <v>16.248000000000001</v>
       </c>
       <c r="M32">
         <v>11.512</v>
       </c>
       <c r="O32">
-        <v>12.239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>12.239000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2009</v>
       </c>
       <c r="B33">
-        <v>5.707</v>
+        <v>5.7069999999999999</v>
       </c>
       <c r="C33">
-        <v>2.991</v>
+        <v>2.9910000000000001</v>
       </c>
       <c r="D33">
-        <v>4.441</v>
+        <v>4.4409999999999998</v>
       </c>
       <c r="E33">
         <v>7.798</v>
@@ -5583,89 +5647,89 @@
         <v>10.926</v>
       </c>
       <c r="G33">
-        <v>13.908</v>
+        <v>13.907999999999999</v>
       </c>
       <c r="H33">
-        <v>16.261</v>
+        <v>16.260999999999999</v>
       </c>
       <c r="I33">
-        <v>18.098</v>
+        <v>18.097999999999999</v>
       </c>
       <c r="J33">
         <v>18.96</v>
       </c>
       <c r="K33">
-        <v>18.298</v>
+        <v>18.297999999999998</v>
       </c>
       <c r="L33">
-        <v>15.848</v>
+        <v>15.848000000000001</v>
       </c>
       <c r="M33">
-        <v>10.739</v>
+        <v>10.739000000000001</v>
       </c>
       <c r="O33">
-        <v>12.049</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>12.048999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2010</v>
       </c>
       <c r="B34">
-        <v>4.958</v>
+        <v>4.9580000000000002</v>
       </c>
       <c r="C34">
-        <v>3.106</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="D34">
         <v>3.847</v>
       </c>
       <c r="E34">
-        <v>6.715</v>
+        <v>6.7149999999999999</v>
       </c>
       <c r="F34">
-        <v>10.639</v>
+        <v>10.638999999999999</v>
       </c>
       <c r="G34">
         <v>14.41</v>
       </c>
       <c r="H34">
-        <v>16.921</v>
+        <v>16.920999999999999</v>
       </c>
       <c r="I34">
-        <v>18.607</v>
+        <v>18.606999999999999</v>
       </c>
       <c r="J34">
-        <v>18.799</v>
+        <v>18.798999999999999</v>
       </c>
       <c r="K34">
         <v>18.648</v>
       </c>
       <c r="L34">
-        <v>16.755</v>
+        <v>16.754999999999999</v>
       </c>
       <c r="M34">
-        <v>11.271</v>
+        <v>11.271000000000001</v>
       </c>
       <c r="O34">
-        <v>12.107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>12.106999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2011</v>
       </c>
       <c r="B35">
-        <v>4.512</v>
+        <v>4.5119999999999996</v>
       </c>
       <c r="C35">
-        <v>2.519</v>
+        <v>2.5190000000000001</v>
       </c>
       <c r="D35">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="E35">
-        <v>6.097</v>
+        <v>6.0970000000000004</v>
       </c>
       <c r="F35">
         <v>10.093</v>
@@ -5674,13 +5738,13 @@
         <v>13.333</v>
       </c>
       <c r="H35">
-        <v>15.752</v>
+        <v>15.752000000000001</v>
       </c>
       <c r="I35">
         <v>17.805</v>
       </c>
       <c r="J35">
-        <v>18.739</v>
+        <v>18.739000000000001</v>
       </c>
       <c r="K35">
         <v>18.218</v>
@@ -5692,42 +5756,42 @@
         <v>11.199</v>
       </c>
       <c r="O35">
-        <v>11.501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>11.500999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2012</v>
       </c>
       <c r="B36">
-        <v>5.654</v>
+        <v>5.6539999999999999</v>
       </c>
       <c r="C36">
-        <v>3.553</v>
+        <v>3.5529999999999999</v>
       </c>
       <c r="D36">
         <v>4.55</v>
       </c>
       <c r="E36">
-        <v>7.309</v>
+        <v>7.3090000000000002</v>
       </c>
       <c r="F36">
-        <v>10.457</v>
+        <v>10.457000000000001</v>
       </c>
       <c r="G36">
-        <v>13.547</v>
+        <v>13.547000000000001</v>
       </c>
       <c r="H36">
-        <v>16.298</v>
+        <v>16.297999999999998</v>
       </c>
       <c r="I36">
-        <v>18.097</v>
+        <v>18.097000000000001</v>
       </c>
       <c r="J36">
-        <v>19.208</v>
+        <v>19.207999999999998</v>
       </c>
       <c r="K36">
-        <v>18.594</v>
+        <v>18.594000000000001</v>
       </c>
       <c r="L36">
         <v>16.11</v>
@@ -5739,51 +5803,51 @@
         <v>12.004</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
       <c r="B37">
-        <v>5.543</v>
+        <v>5.5430000000000001</v>
       </c>
       <c r="C37">
-        <v>3.836</v>
+        <v>3.8359999999999999</v>
       </c>
       <c r="D37">
-        <v>5.017</v>
+        <v>5.0170000000000003</v>
       </c>
       <c r="E37">
-        <v>7.623</v>
+        <v>7.6230000000000002</v>
       </c>
       <c r="F37">
         <v>10.92</v>
       </c>
       <c r="G37">
-        <v>14.155</v>
+        <v>14.154999999999999</v>
       </c>
       <c r="H37">
-        <v>16.809</v>
+        <v>16.809000000000001</v>
       </c>
       <c r="I37">
-        <v>18.664</v>
+        <v>18.664000000000001</v>
       </c>
       <c r="J37">
-        <v>19.389</v>
+        <v>19.388999999999999</v>
       </c>
       <c r="K37">
-        <v>19.018</v>
+        <v>19.018000000000001</v>
       </c>
       <c r="L37">
         <v>16.872</v>
       </c>
       <c r="M37">
-        <v>11.854</v>
+        <v>11.853999999999999</v>
       </c>
       <c r="O37">
-        <v>12.524</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>12.523999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -5794,7 +5858,7 @@
         <v>3.843</v>
       </c>
       <c r="D38">
-        <v>4.901</v>
+        <v>4.9009999999999998</v>
       </c>
       <c r="E38">
         <v>8.343</v>
@@ -5803,13 +5867,13 @@
         <v>11.519</v>
       </c>
       <c r="G38">
-        <v>14.687</v>
+        <v>14.686999999999999</v>
       </c>
       <c r="H38">
-        <v>17.106</v>
+        <v>17.106000000000002</v>
       </c>
       <c r="I38">
-        <v>18.908</v>
+        <v>18.908000000000001</v>
       </c>
       <c r="J38">
         <v>19.756</v>
@@ -5818,65 +5882,65 @@
         <v>19.003</v>
       </c>
       <c r="L38">
-        <v>16.388</v>
+        <v>16.388000000000002</v>
       </c>
       <c r="M38">
-        <v>11.928</v>
+        <v>11.928000000000001</v>
       </c>
       <c r="O38">
         <v>12.776</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
       <c r="B39">
-        <v>6.852</v>
+        <v>6.8520000000000003</v>
       </c>
       <c r="C39">
-        <v>3.799</v>
+        <v>3.7989999999999999</v>
       </c>
       <c r="D39">
-        <v>4.964</v>
+        <v>4.9640000000000004</v>
       </c>
       <c r="E39">
-        <v>8.372999999999999</v>
+        <v>8.3729999999999993</v>
       </c>
       <c r="F39">
-        <v>11.716</v>
+        <v>11.715999999999999</v>
       </c>
       <c r="G39">
         <v>14.475</v>
       </c>
       <c r="H39">
-        <v>16.775</v>
+        <v>16.774999999999999</v>
       </c>
       <c r="I39">
-        <v>17.749</v>
+        <v>17.748999999999999</v>
       </c>
       <c r="J39">
-        <v>18.444</v>
+        <v>18.443999999999999</v>
       </c>
       <c r="K39">
-        <v>18.409</v>
+        <v>18.408999999999999</v>
       </c>
       <c r="L39">
-        <v>16.175</v>
+        <v>16.175000000000001</v>
       </c>
       <c r="M39">
-        <v>10.655</v>
+        <v>10.654999999999999</v>
       </c>
       <c r="O39">
         <v>12.414</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
       <c r="B40">
-        <v>4.689</v>
+        <v>4.6890000000000001</v>
       </c>
       <c r="C40">
         <v>2.79</v>
@@ -5885,66 +5949,66 @@
         <v>4.069</v>
       </c>
       <c r="E40">
-        <v>7.222</v>
+        <v>7.2220000000000004</v>
       </c>
       <c r="F40">
         <v>10.102</v>
       </c>
       <c r="G40">
-        <v>13.242</v>
+        <v>13.242000000000001</v>
       </c>
       <c r="H40">
-        <v>16.024</v>
+        <v>16.024000000000001</v>
       </c>
       <c r="I40">
-        <v>17.892</v>
+        <v>17.891999999999999</v>
       </c>
       <c r="J40">
-        <v>18.15</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="K40">
         <v>17.46</v>
       </c>
       <c r="L40">
-        <v>14.223</v>
+        <v>14.223000000000001</v>
       </c>
       <c r="M40">
-        <v>8.279</v>
+        <v>8.2789999999999999</v>
       </c>
       <c r="O40">
         <v>11.202</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2017</v>
       </c>
       <c r="B41">
-        <v>3.784</v>
+        <v>3.7839999999999998</v>
       </c>
       <c r="C41">
-        <v>2.288</v>
+        <v>2.2879999999999998</v>
       </c>
       <c r="D41">
-        <v>2.699</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="E41">
-        <v>5.436</v>
+        <v>5.4359999999999999</v>
       </c>
       <c r="F41">
-        <v>9.013999999999999</v>
+        <v>9.0139999999999993</v>
       </c>
       <c r="G41">
-        <v>12.409</v>
+        <v>12.409000000000001</v>
       </c>
       <c r="H41">
-        <v>15.297</v>
+        <v>15.297000000000001</v>
       </c>
       <c r="I41">
-        <v>17.219</v>
+        <v>17.219000000000001</v>
       </c>
       <c r="J41">
-        <v>17.906</v>
+        <v>17.905999999999999</v>
       </c>
       <c r="K41">
         <v>17.776</v>
@@ -5953,18 +6017,18 @@
         <v>15.113</v>
       </c>
       <c r="M41">
-        <v>9.481999999999999</v>
+        <v>9.4819999999999993</v>
       </c>
       <c r="O41">
-        <v>10.749</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>10.749000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2018</v>
       </c>
       <c r="B42">
-        <v>4.127</v>
+        <v>4.1269999999999998</v>
       </c>
       <c r="C42">
         <v>2.294</v>
@@ -5976,7 +6040,7 @@
         <v>6.01</v>
       </c>
       <c r="F42">
-        <v>9.294</v>
+        <v>9.2940000000000005</v>
       </c>
       <c r="G42">
         <v>12.846</v>
@@ -5988,22 +6052,22 @@
         <v>17.34</v>
       </c>
       <c r="J42">
-        <v>17.879</v>
+        <v>17.879000000000001</v>
       </c>
       <c r="K42">
-        <v>17.656</v>
+        <v>17.655999999999999</v>
       </c>
       <c r="L42">
         <v>15.01</v>
       </c>
       <c r="M42">
-        <v>9.032999999999999</v>
+        <v>9.0329999999999995</v>
       </c>
       <c r="O42">
-        <v>10.938</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>10.938000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2019</v>
       </c>
@@ -6011,13 +6075,13 @@
         <v>3.831</v>
       </c>
       <c r="C43">
-        <v>2.656</v>
+        <v>2.6560000000000001</v>
       </c>
       <c r="D43">
-        <v>3.164</v>
+        <v>3.1640000000000001</v>
       </c>
       <c r="O43" s="2">
-        <v>3.236</v>
+        <v>3.2360000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -6026,14 +6090,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6075,7 +6142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1978</v>
       </c>
@@ -6083,30 +6150,30 @@
         <v>11.686</v>
       </c>
       <c r="M2">
-        <v>6.969</v>
+        <v>6.9690000000000003</v>
       </c>
       <c r="O2" s="2">
-        <v>9.289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.2889999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1979</v>
       </c>
       <c r="B3">
-        <v>3.474</v>
+        <v>3.4740000000000002</v>
       </c>
       <c r="C3">
-        <v>2.107</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="D3">
-        <v>2.663</v>
+        <v>2.6629999999999998</v>
       </c>
       <c r="E3">
         <v>5.452</v>
       </c>
       <c r="F3">
-        <v>8.298999999999999</v>
+        <v>8.2989999999999995</v>
       </c>
       <c r="G3">
         <v>11.224</v>
@@ -6118,27 +6185,27 @@
         <v>13.785</v>
       </c>
       <c r="J3">
-        <v>14.287</v>
+        <v>14.287000000000001</v>
       </c>
       <c r="K3">
         <v>13.722</v>
       </c>
       <c r="L3">
-        <v>11.322</v>
+        <v>11.321999999999999</v>
       </c>
       <c r="M3">
-        <v>6.236</v>
+        <v>6.2359999999999998</v>
       </c>
       <c r="O3">
-        <v>8.855</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>8.8550000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1980</v>
       </c>
       <c r="B4">
-        <v>3.082</v>
+        <v>3.0819999999999999</v>
       </c>
       <c r="C4">
         <v>1.847</v>
@@ -6147,13 +6214,13 @@
         <v>2.11</v>
       </c>
       <c r="E4">
-        <v>3.678</v>
+        <v>3.6779999999999999</v>
       </c>
       <c r="F4">
-        <v>6.437</v>
+        <v>6.4370000000000003</v>
       </c>
       <c r="G4">
-        <v>9.581</v>
+        <v>9.5809999999999995</v>
       </c>
       <c r="H4">
         <v>12.18</v>
@@ -6168,30 +6235,30 @@
         <v>14.568</v>
       </c>
       <c r="L4">
-        <v>11.841</v>
+        <v>11.840999999999999</v>
       </c>
       <c r="M4">
-        <v>6.559</v>
+        <v>6.5590000000000002</v>
       </c>
       <c r="O4">
         <v>8.41</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1981</v>
       </c>
       <c r="B5">
-        <v>2.841</v>
+        <v>2.8410000000000002</v>
       </c>
       <c r="C5">
-        <v>1.737</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="D5">
-        <v>2.155</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="E5">
-        <v>4.073</v>
+        <v>4.0730000000000004</v>
       </c>
       <c r="F5">
         <v>7.077</v>
@@ -6200,13 +6267,13 @@
         <v>10.163</v>
       </c>
       <c r="H5">
-        <v>12.777</v>
+        <v>12.776999999999999</v>
       </c>
       <c r="I5">
-        <v>14.156</v>
+        <v>14.156000000000001</v>
       </c>
       <c r="J5">
-        <v>14.781</v>
+        <v>14.781000000000001</v>
       </c>
       <c r="K5">
         <v>14.433</v>
@@ -6215,77 +6282,77 @@
         <v>12.073</v>
       </c>
       <c r="M5">
-        <v>7.015</v>
+        <v>7.0149999999999997</v>
       </c>
       <c r="O5">
-        <v>8.645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.6449999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1982</v>
       </c>
       <c r="B6">
-        <v>3.251</v>
+        <v>3.2509999999999999</v>
       </c>
       <c r="C6">
         <v>1.86</v>
       </c>
       <c r="D6">
-        <v>2.841</v>
+        <v>2.8410000000000002</v>
       </c>
       <c r="E6">
-        <v>5.792</v>
+        <v>5.7919999999999998</v>
       </c>
       <c r="F6">
-        <v>8.273</v>
+        <v>8.2729999999999997</v>
       </c>
       <c r="G6">
-        <v>10.498</v>
+        <v>10.497999999999999</v>
       </c>
       <c r="H6">
-        <v>12.473</v>
+        <v>12.473000000000001</v>
       </c>
       <c r="I6">
-        <v>14.284</v>
+        <v>14.284000000000001</v>
       </c>
       <c r="J6">
         <v>14.529</v>
       </c>
       <c r="K6">
-        <v>13.745</v>
+        <v>13.744999999999999</v>
       </c>
       <c r="L6">
         <v>11.269</v>
       </c>
       <c r="M6">
-        <v>6.314</v>
+        <v>6.3140000000000001</v>
       </c>
       <c r="O6">
         <v>8.798</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1983</v>
       </c>
       <c r="B7">
-        <v>3.207</v>
+        <v>3.2069999999999999</v>
       </c>
       <c r="C7">
-        <v>1.906</v>
+        <v>1.9059999999999999</v>
       </c>
       <c r="D7">
-        <v>2.616</v>
+        <v>2.6160000000000001</v>
       </c>
       <c r="E7">
-        <v>4.696</v>
+        <v>4.6959999999999997</v>
       </c>
       <c r="F7">
-        <v>7.159</v>
+        <v>7.1589999999999998</v>
       </c>
       <c r="G7">
-        <v>9.769</v>
+        <v>9.7690000000000001</v>
       </c>
       <c r="H7">
         <v>12.366</v>
@@ -6303,30 +6370,30 @@
         <v>11.567</v>
       </c>
       <c r="M7">
-        <v>6.705</v>
+        <v>6.7050000000000001</v>
       </c>
       <c r="O7">
-        <v>8.571999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.5719999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1984</v>
       </c>
       <c r="B8">
-        <v>2.934</v>
+        <v>2.9340000000000002</v>
       </c>
       <c r="C8">
         <v>1.752</v>
       </c>
       <c r="D8">
-        <v>2.345</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="E8">
-        <v>4.528</v>
+        <v>4.5279999999999996</v>
       </c>
       <c r="F8">
-        <v>7.413</v>
+        <v>7.4130000000000003</v>
       </c>
       <c r="G8">
         <v>10.645</v>
@@ -6338,7 +6405,7 @@
         <v>14.23</v>
       </c>
       <c r="J8">
-        <v>14.268</v>
+        <v>14.268000000000001</v>
       </c>
       <c r="K8">
         <v>13.734</v>
@@ -6347,30 +6414,30 @@
         <v>12.058</v>
       </c>
       <c r="M8">
-        <v>6.959</v>
+        <v>6.9589999999999996</v>
       </c>
       <c r="O8">
-        <v>8.707000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>8.7070000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1985</v>
       </c>
       <c r="B9">
-        <v>2.874</v>
+        <v>2.8740000000000001</v>
       </c>
       <c r="C9">
         <v>1.835</v>
       </c>
       <c r="D9">
-        <v>2.538</v>
+        <v>2.5379999999999998</v>
       </c>
       <c r="E9">
         <v>4.742</v>
       </c>
       <c r="F9">
-        <v>7.839</v>
+        <v>7.8390000000000004</v>
       </c>
       <c r="G9">
         <v>10.506</v>
@@ -6385,24 +6452,24 @@
         <v>14.722</v>
       </c>
       <c r="K9">
-        <v>14.367</v>
+        <v>14.367000000000001</v>
       </c>
       <c r="L9">
-        <v>12.344</v>
+        <v>12.343999999999999</v>
       </c>
       <c r="M9">
-        <v>7.456</v>
+        <v>7.4560000000000004</v>
       </c>
       <c r="O9">
-        <v>8.867000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>8.8670000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1986</v>
       </c>
       <c r="B10">
-        <v>3.428</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="C10">
         <v>1.996</v>
@@ -6411,22 +6478,22 @@
         <v>2.379</v>
       </c>
       <c r="E10">
-        <v>4.558</v>
+        <v>4.5579999999999998</v>
       </c>
       <c r="F10">
         <v>7.04</v>
       </c>
       <c r="G10">
-        <v>9.720000000000001</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="H10">
         <v>12.093</v>
       </c>
       <c r="I10">
-        <v>13.457</v>
+        <v>13.457000000000001</v>
       </c>
       <c r="J10">
-        <v>13.876</v>
+        <v>13.875999999999999</v>
       </c>
       <c r="K10">
         <v>13.324</v>
@@ -6435,39 +6502,39 @@
         <v>10.866</v>
       </c>
       <c r="M10">
-        <v>6.489</v>
+        <v>6.4889999999999999</v>
       </c>
       <c r="O10">
-        <v>8.304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>8.3040000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1987</v>
       </c>
       <c r="B11">
-        <v>3.307</v>
+        <v>3.3069999999999999</v>
       </c>
       <c r="C11">
-        <v>1.999</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="D11">
-        <v>2.747</v>
+        <v>2.7469999999999999</v>
       </c>
       <c r="E11">
-        <v>5.044</v>
+        <v>5.0439999999999996</v>
       </c>
       <c r="F11">
-        <v>7.534</v>
+        <v>7.5339999999999998</v>
       </c>
       <c r="G11">
         <v>9.91</v>
       </c>
       <c r="H11">
-        <v>12.498</v>
+        <v>12.497999999999999</v>
       </c>
       <c r="I11">
-        <v>14.018</v>
+        <v>14.018000000000001</v>
       </c>
       <c r="J11">
         <v>14.27</v>
@@ -6479,10 +6546,10 @@
         <v>11.227</v>
       </c>
       <c r="O11" s="2">
-        <v>8.795999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>8.7959999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1988</v>
       </c>
@@ -6493,10 +6560,10 @@
         <v>2.59</v>
       </c>
       <c r="E12">
-        <v>4.436</v>
+        <v>4.4359999999999999</v>
       </c>
       <c r="F12">
-        <v>7.228</v>
+        <v>7.2279999999999998</v>
       </c>
       <c r="G12">
         <v>10.278</v>
@@ -6505,7 +6572,7 @@
         <v>12.615</v>
       </c>
       <c r="I12">
-        <v>13.976</v>
+        <v>13.976000000000001</v>
       </c>
       <c r="J12">
         <v>14.198</v>
@@ -6514,16 +6581,16 @@
         <v>14.414</v>
       </c>
       <c r="L12">
-        <v>12.293</v>
+        <v>12.292999999999999</v>
       </c>
       <c r="M12">
-        <v>7.403</v>
+        <v>7.4029999999999996</v>
       </c>
       <c r="O12" s="2">
-        <v>9.243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.2430000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1989</v>
       </c>
@@ -6531,28 +6598,28 @@
         <v>3.17</v>
       </c>
       <c r="C13">
-        <v>2.026</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="D13">
-        <v>2.587</v>
+        <v>2.5870000000000002</v>
       </c>
       <c r="E13">
-        <v>4.496</v>
+        <v>4.4960000000000004</v>
       </c>
       <c r="F13">
-        <v>7.999</v>
+        <v>7.9989999999999997</v>
       </c>
       <c r="G13">
         <v>10.814</v>
       </c>
       <c r="H13">
-        <v>12.578</v>
+        <v>12.577999999999999</v>
       </c>
       <c r="I13">
-        <v>14.031</v>
+        <v>14.031000000000001</v>
       </c>
       <c r="J13">
-        <v>14.476</v>
+        <v>14.476000000000001</v>
       </c>
       <c r="K13">
         <v>13.846</v>
@@ -6561,39 +6628,39 @@
         <v>11.42</v>
       </c>
       <c r="M13">
-        <v>6.704</v>
+        <v>6.7039999999999997</v>
       </c>
       <c r="O13">
-        <v>8.715999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>8.7159999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1990</v>
       </c>
       <c r="B14">
-        <v>3.388</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="C14">
-        <v>2.205</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="D14">
-        <v>2.793</v>
+        <v>2.7930000000000001</v>
       </c>
       <c r="E14">
         <v>5.18</v>
       </c>
       <c r="F14">
-        <v>7.463</v>
+        <v>7.4630000000000001</v>
       </c>
       <c r="G14">
         <v>10.353</v>
       </c>
       <c r="H14">
-        <v>12.267</v>
+        <v>12.266999999999999</v>
       </c>
       <c r="I14">
-        <v>14.033</v>
+        <v>14.032999999999999</v>
       </c>
       <c r="J14">
         <v>14.391</v>
@@ -6602,36 +6669,36 @@
         <v>13.798</v>
       </c>
       <c r="L14">
-        <v>11.345</v>
+        <v>11.345000000000001</v>
       </c>
       <c r="M14">
         <v>6.73</v>
       </c>
       <c r="O14">
-        <v>8.696999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.6969999999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1991</v>
       </c>
       <c r="B15">
-        <v>3.517</v>
+        <v>3.5169999999999999</v>
       </c>
       <c r="C15">
-        <v>2.091</v>
+        <v>2.0910000000000002</v>
       </c>
       <c r="D15">
-        <v>2.654</v>
+        <v>2.6539999999999999</v>
       </c>
       <c r="E15">
         <v>5.181</v>
       </c>
       <c r="F15">
-        <v>7.855</v>
+        <v>7.8550000000000004</v>
       </c>
       <c r="G15">
-        <v>9.986000000000001</v>
+        <v>9.9860000000000007</v>
       </c>
       <c r="H15">
         <v>12.218</v>
@@ -6643,7 +6710,7 @@
         <v>14.471</v>
       </c>
       <c r="K15">
-        <v>13.803</v>
+        <v>13.803000000000001</v>
       </c>
       <c r="L15">
         <v>11.458</v>
@@ -6652,36 +6719,36 @@
         <v>6.798</v>
       </c>
       <c r="O15">
-        <v>8.710000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1992</v>
       </c>
       <c r="B16">
-        <v>3.235</v>
+        <v>3.2349999999999999</v>
       </c>
       <c r="C16">
-        <v>1.856</v>
+        <v>1.8560000000000001</v>
       </c>
       <c r="D16">
-        <v>2.467</v>
+        <v>2.4670000000000001</v>
       </c>
       <c r="E16">
-        <v>4.997</v>
+        <v>4.9969999999999999</v>
       </c>
       <c r="F16">
-        <v>7.622</v>
+        <v>7.6219999999999999</v>
       </c>
       <c r="G16">
         <v>10.004</v>
       </c>
       <c r="H16">
-        <v>12.576</v>
+        <v>12.576000000000001</v>
       </c>
       <c r="I16">
-        <v>14.172</v>
+        <v>14.172000000000001</v>
       </c>
       <c r="J16">
         <v>14.134</v>
@@ -6693,13 +6760,13 @@
         <v>11.2</v>
       </c>
       <c r="M16">
-        <v>6.178</v>
+        <v>6.1779999999999999</v>
       </c>
       <c r="O16">
-        <v>8.544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.5440000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1993</v>
       </c>
@@ -6713,10 +6780,10 @@
         <v>2.238</v>
       </c>
       <c r="E17">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F17">
-        <v>7.885</v>
+        <v>7.8849999999999998</v>
       </c>
       <c r="G17">
         <v>10.369</v>
@@ -6728,42 +6795,42 @@
         <v>13.935</v>
       </c>
       <c r="J17">
-        <v>14.704</v>
+        <v>14.704000000000001</v>
       </c>
       <c r="K17">
-        <v>14.172</v>
+        <v>14.172000000000001</v>
       </c>
       <c r="L17">
         <v>11.833</v>
       </c>
       <c r="M17">
-        <v>6.671</v>
+        <v>6.6710000000000003</v>
       </c>
       <c r="O17">
-        <v>8.651999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.6519999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1994</v>
       </c>
       <c r="B18">
-        <v>3.372</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="C18">
-        <v>2.225</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="D18">
-        <v>3.199</v>
+        <v>3.1989999999999998</v>
       </c>
       <c r="E18">
-        <v>5.455</v>
+        <v>5.4550000000000001</v>
       </c>
       <c r="F18">
-        <v>8.208</v>
+        <v>8.2080000000000002</v>
       </c>
       <c r="G18">
-        <v>10.733</v>
+        <v>10.733000000000001</v>
       </c>
       <c r="H18">
         <v>13.121</v>
@@ -6778,16 +6845,16 @@
         <v>14.067</v>
       </c>
       <c r="L18">
-        <v>11.781</v>
+        <v>11.781000000000001</v>
       </c>
       <c r="M18">
-        <v>7.112</v>
+        <v>7.1120000000000001</v>
       </c>
       <c r="O18">
-        <v>9.069000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.0690000000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1995</v>
       </c>
@@ -6795,16 +6862,16 @@
         <v>3.73</v>
       </c>
       <c r="C19">
-        <v>2.188</v>
+        <v>2.1880000000000002</v>
       </c>
       <c r="D19">
-        <v>3.011</v>
+        <v>3.0110000000000001</v>
       </c>
       <c r="E19">
-        <v>5.404</v>
+        <v>5.4039999999999999</v>
       </c>
       <c r="F19">
-        <v>8.189</v>
+        <v>8.1890000000000001</v>
       </c>
       <c r="G19">
         <v>10.455</v>
@@ -6813,7 +6880,7 @@
         <v>12.529</v>
       </c>
       <c r="I19">
-        <v>14.203</v>
+        <v>14.202999999999999</v>
       </c>
       <c r="J19">
         <v>14.462</v>
@@ -6825,13 +6892,13 @@
         <v>11.487</v>
       </c>
       <c r="M19">
-        <v>7.191</v>
+        <v>7.1909999999999998</v>
       </c>
       <c r="O19">
-        <v>8.906000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>8.9060000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1996</v>
       </c>
@@ -6845,10 +6912,10 @@
         <v>2.649</v>
       </c>
       <c r="E20">
-        <v>5.365</v>
+        <v>5.3650000000000002</v>
       </c>
       <c r="F20">
-        <v>8.654999999999999</v>
+        <v>8.6549999999999994</v>
       </c>
       <c r="G20">
         <v>11.09</v>
@@ -6860,7 +6927,7 @@
         <v>13.895</v>
       </c>
       <c r="J20">
-        <v>14.543</v>
+        <v>14.542999999999999</v>
       </c>
       <c r="K20">
         <v>13.939</v>
@@ -6872,21 +6939,21 @@
         <v>6.24</v>
       </c>
       <c r="O20">
-        <v>8.837999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>8.8379999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1997</v>
       </c>
       <c r="B21">
-        <v>2.769</v>
+        <v>2.7690000000000001</v>
       </c>
       <c r="C21">
-        <v>1.717</v>
+        <v>1.7170000000000001</v>
       </c>
       <c r="D21">
-        <v>2.297</v>
+        <v>2.2970000000000002</v>
       </c>
       <c r="E21">
         <v>4.835</v>
@@ -6898,7 +6965,7 @@
         <v>10.215</v>
       </c>
       <c r="H21">
-        <v>12.749</v>
+        <v>12.749000000000001</v>
       </c>
       <c r="I21">
         <v>14.086</v>
@@ -6910,33 +6977,33 @@
         <v>14.121</v>
       </c>
       <c r="L21">
-        <v>11.592</v>
+        <v>11.592000000000001</v>
       </c>
       <c r="M21">
-        <v>6.991</v>
+        <v>6.9909999999999997</v>
       </c>
       <c r="O21">
-        <v>8.695</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>8.6950000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1998</v>
       </c>
       <c r="B22">
-        <v>3.039</v>
+        <v>3.0390000000000001</v>
       </c>
       <c r="C22">
-        <v>1.868</v>
+        <v>1.8680000000000001</v>
       </c>
       <c r="D22">
-        <v>2.705</v>
+        <v>2.7050000000000001</v>
       </c>
       <c r="E22">
         <v>5.12</v>
       </c>
       <c r="F22">
-        <v>7.911</v>
+        <v>7.9109999999999996</v>
       </c>
       <c r="G22">
         <v>10.339</v>
@@ -6948,7 +7015,7 @@
         <v>14.06</v>
       </c>
       <c r="J22">
-        <v>14.842</v>
+        <v>14.842000000000001</v>
       </c>
       <c r="K22">
         <v>14.541</v>
@@ -6957,65 +7024,65 @@
         <v>11.879</v>
       </c>
       <c r="M22">
-        <v>6.802</v>
+        <v>6.8019999999999996</v>
       </c>
       <c r="O22">
-        <v>8.852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>8.8520000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1999</v>
       </c>
       <c r="B23">
-        <v>3.108</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="C23">
         <v>1.774</v>
       </c>
       <c r="D23">
-        <v>2.576</v>
+        <v>2.5760000000000001</v>
       </c>
       <c r="E23">
         <v>5.13</v>
       </c>
       <c r="F23">
-        <v>8.073</v>
+        <v>8.0730000000000004</v>
       </c>
       <c r="G23">
         <v>10.827</v>
       </c>
       <c r="H23">
-        <v>13.063</v>
+        <v>13.063000000000001</v>
       </c>
       <c r="I23">
-        <v>14.239</v>
+        <v>14.239000000000001</v>
       </c>
       <c r="J23">
         <v>14.616</v>
       </c>
       <c r="K23">
-        <v>14.235</v>
+        <v>14.234999999999999</v>
       </c>
       <c r="L23">
-        <v>11.511</v>
+        <v>11.510999999999999</v>
       </c>
       <c r="M23">
-        <v>6.803</v>
+        <v>6.8029999999999999</v>
       </c>
       <c r="O23">
-        <v>8.869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>8.8689999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2000</v>
       </c>
       <c r="B24">
-        <v>2.921</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="C24">
-        <v>1.719</v>
+        <v>1.7190000000000001</v>
       </c>
       <c r="D24">
         <v>2.665</v>
@@ -7024,10 +7091,10 @@
         <v>5.306</v>
       </c>
       <c r="F24">
-        <v>8.561999999999999</v>
+        <v>8.5619999999999994</v>
       </c>
       <c r="G24">
-        <v>11.037</v>
+        <v>11.037000000000001</v>
       </c>
       <c r="H24">
         <v>12.987</v>
@@ -7045,36 +7112,36 @@
         <v>11.808</v>
       </c>
       <c r="M24">
-        <v>6.954</v>
+        <v>6.9539999999999997</v>
       </c>
       <c r="O24">
-        <v>9.013999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>9.0139999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
       <c r="B25">
-        <v>3.638</v>
+        <v>3.6379999999999999</v>
       </c>
       <c r="C25">
-        <v>2.445</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="D25">
-        <v>3.356</v>
+        <v>3.3559999999999999</v>
       </c>
       <c r="E25">
-        <v>5.299</v>
+        <v>5.2990000000000004</v>
       </c>
       <c r="F25">
         <v>8</v>
       </c>
       <c r="G25">
-        <v>10.556</v>
+        <v>10.555999999999999</v>
       </c>
       <c r="H25">
-        <v>12.576</v>
+        <v>12.576000000000001</v>
       </c>
       <c r="I25">
         <v>13.753</v>
@@ -7089,13 +7156,13 @@
         <v>10.997</v>
       </c>
       <c r="M25">
-        <v>6.355</v>
+        <v>6.3550000000000004</v>
       </c>
       <c r="O25">
-        <v>8.757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>8.7569999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2002</v>
       </c>
@@ -7103,7 +7170,7 @@
         <v>2.95</v>
       </c>
       <c r="C26">
-        <v>1.817</v>
+        <v>1.8169999999999999</v>
       </c>
       <c r="D26">
         <v>2.363</v>
@@ -7112,19 +7179,19 @@
         <v>4.585</v>
       </c>
       <c r="F26">
-        <v>7.175</v>
+        <v>7.1749999999999998</v>
       </c>
       <c r="G26">
-        <v>9.695</v>
+        <v>9.6950000000000003</v>
       </c>
       <c r="H26">
         <v>12.516</v>
       </c>
       <c r="I26">
-        <v>13.739</v>
+        <v>13.739000000000001</v>
       </c>
       <c r="J26">
-        <v>14.104</v>
+        <v>14.103999999999999</v>
       </c>
       <c r="K26">
         <v>13.82</v>
@@ -7136,54 +7203,54 @@
         <v>7.61</v>
       </c>
       <c r="O26">
-        <v>8.542</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>8.5419999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2003</v>
       </c>
       <c r="B27">
-        <v>4.113</v>
+        <v>4.1130000000000004</v>
       </c>
       <c r="C27">
-        <v>2.659</v>
+        <v>2.6589999999999998</v>
       </c>
       <c r="D27">
         <v>3.238</v>
       </c>
       <c r="E27">
-        <v>5.558</v>
+        <v>5.5579999999999998</v>
       </c>
       <c r="F27">
         <v>8.452</v>
       </c>
       <c r="G27">
-        <v>11.158</v>
+        <v>11.157999999999999</v>
       </c>
       <c r="H27">
-        <v>13.165</v>
+        <v>13.164999999999999</v>
       </c>
       <c r="I27">
-        <v>13.771</v>
+        <v>13.771000000000001</v>
       </c>
       <c r="J27">
-        <v>14.142</v>
+        <v>14.141999999999999</v>
       </c>
       <c r="K27">
-        <v>13.874</v>
+        <v>13.874000000000001</v>
       </c>
       <c r="L27">
-        <v>11.466</v>
+        <v>11.465999999999999</v>
       </c>
       <c r="M27">
-        <v>7.203</v>
+        <v>7.2030000000000003</v>
       </c>
       <c r="O27">
-        <v>9.103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>9.1029999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2004</v>
       </c>
@@ -7191,16 +7258,16 @@
         <v>3.8</v>
       </c>
       <c r="C28">
-        <v>2.361</v>
+        <v>2.3610000000000002</v>
       </c>
       <c r="D28">
-        <v>3.164</v>
+        <v>3.1640000000000001</v>
       </c>
       <c r="E28">
-        <v>5.395</v>
+        <v>5.3949999999999996</v>
       </c>
       <c r="F28">
-        <v>8.186</v>
+        <v>8.1859999999999999</v>
       </c>
       <c r="G28">
         <v>10.89</v>
@@ -7209,45 +7276,45 @@
         <v>13.157</v>
       </c>
       <c r="I28">
-        <v>14.233</v>
+        <v>14.233000000000001</v>
       </c>
       <c r="J28">
-        <v>14.591</v>
+        <v>14.590999999999999</v>
       </c>
       <c r="K28">
-        <v>14.123</v>
+        <v>14.122999999999999</v>
       </c>
       <c r="L28">
-        <v>11.748</v>
+        <v>11.747999999999999</v>
       </c>
       <c r="M28">
-        <v>6.929</v>
+        <v>6.9290000000000003</v>
       </c>
       <c r="O28">
-        <v>9.067</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>9.0670000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2005</v>
       </c>
       <c r="B29">
-        <v>3.178</v>
+        <v>3.1779999999999999</v>
       </c>
       <c r="C29">
         <v>1.968</v>
       </c>
       <c r="D29">
-        <v>2.735</v>
+        <v>2.7349999999999999</v>
       </c>
       <c r="E29">
-        <v>5.191</v>
+        <v>5.1909999999999998</v>
       </c>
       <c r="F29">
-        <v>7.957</v>
+        <v>7.9569999999999999</v>
       </c>
       <c r="G29">
-        <v>10.312</v>
+        <v>10.311999999999999</v>
       </c>
       <c r="H29">
         <v>12.72</v>
@@ -7259,39 +7326,39 @@
         <v>14.852</v>
       </c>
       <c r="K29">
-        <v>14.037</v>
+        <v>14.037000000000001</v>
       </c>
       <c r="L29">
         <v>11.804</v>
       </c>
       <c r="M29">
-        <v>6.333</v>
+        <v>6.3330000000000002</v>
       </c>
       <c r="O29">
-        <v>8.789</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>8.7889999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2006</v>
       </c>
       <c r="B30">
-        <v>2.807</v>
+        <v>2.8069999999999999</v>
       </c>
       <c r="C30">
         <v>1.758</v>
       </c>
       <c r="D30">
-        <v>2.014</v>
+        <v>2.0139999999999998</v>
       </c>
       <c r="E30">
-        <v>4.278</v>
+        <v>4.2779999999999996</v>
       </c>
       <c r="F30">
-        <v>7.199</v>
+        <v>7.1989999999999998</v>
       </c>
       <c r="G30">
-        <v>10.579</v>
+        <v>10.579000000000001</v>
       </c>
       <c r="H30">
         <v>12.881</v>
@@ -7309,42 +7376,42 @@
         <v>11.61</v>
       </c>
       <c r="M30">
-        <v>6.483</v>
+        <v>6.4829999999999997</v>
       </c>
       <c r="O30">
-        <v>8.705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>8.7050000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
       <c r="B31">
-        <v>3.001</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="C31">
         <v>1.94</v>
       </c>
       <c r="D31">
-        <v>2.543</v>
+        <v>2.5430000000000001</v>
       </c>
       <c r="E31">
-        <v>4.697</v>
+        <v>4.6970000000000001</v>
       </c>
       <c r="F31">
-        <v>7.544</v>
+        <v>7.5439999999999996</v>
       </c>
       <c r="G31">
-        <v>10.479</v>
+        <v>10.478999999999999</v>
       </c>
       <c r="H31">
-        <v>12.614</v>
+        <v>12.614000000000001</v>
       </c>
       <c r="I31">
-        <v>14.033</v>
+        <v>14.032999999999999</v>
       </c>
       <c r="J31">
-        <v>15.389</v>
+        <v>15.388999999999999</v>
       </c>
       <c r="K31">
         <v>14.587</v>
@@ -7353,30 +7420,30 @@
         <v>12.16</v>
       </c>
       <c r="M31">
-        <v>8.384</v>
+        <v>8.3840000000000003</v>
       </c>
       <c r="O31">
-        <v>8.986000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>8.9860000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2008</v>
       </c>
       <c r="B32">
-        <v>4.071</v>
+        <v>4.0709999999999997</v>
       </c>
       <c r="C32">
         <v>2.4</v>
       </c>
       <c r="D32">
-        <v>3.676</v>
+        <v>3.6760000000000002</v>
       </c>
       <c r="E32">
         <v>6.234</v>
       </c>
       <c r="F32">
-        <v>8.597</v>
+        <v>8.5969999999999995</v>
       </c>
       <c r="G32">
         <v>11.401</v>
@@ -7388,7 +7455,7 @@
         <v>14.128</v>
       </c>
       <c r="J32">
-        <v>14.392</v>
+        <v>14.391999999999999</v>
       </c>
       <c r="K32">
         <v>14.122</v>
@@ -7397,39 +7464,39 @@
         <v>12.006</v>
       </c>
       <c r="M32">
-        <v>7.386</v>
+        <v>7.3860000000000001</v>
       </c>
       <c r="O32">
-        <v>9.298999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>9.2989999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2009</v>
       </c>
       <c r="B33">
-        <v>3.499</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="C33">
         <v>1.97</v>
       </c>
       <c r="D33">
-        <v>3.015</v>
+        <v>3.0150000000000001</v>
       </c>
       <c r="E33">
-        <v>5.962</v>
+        <v>5.9619999999999997</v>
       </c>
       <c r="F33">
-        <v>8.462999999999999</v>
+        <v>8.4629999999999992</v>
       </c>
       <c r="G33">
         <v>11.093</v>
       </c>
       <c r="H33">
-        <v>13.091</v>
+        <v>13.090999999999999</v>
       </c>
       <c r="I33">
-        <v>14.451</v>
+        <v>14.451000000000001</v>
       </c>
       <c r="J33">
         <v>15.083</v>
@@ -7441,57 +7508,57 @@
         <v>11.804</v>
       </c>
       <c r="M33">
-        <v>7.091</v>
+        <v>7.0910000000000002</v>
       </c>
       <c r="O33">
-        <v>9.195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>9.1950000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2010</v>
       </c>
       <c r="B34">
-        <v>3.334</v>
+        <v>3.3340000000000001</v>
       </c>
       <c r="C34">
-        <v>2.108</v>
+        <v>2.1080000000000001</v>
       </c>
       <c r="D34">
-        <v>2.664</v>
+        <v>2.6640000000000001</v>
       </c>
       <c r="E34">
-        <v>5.005</v>
+        <v>5.0049999999999999</v>
       </c>
       <c r="F34">
-        <v>8.335000000000001</v>
+        <v>8.3350000000000009</v>
       </c>
       <c r="G34">
         <v>11.647</v>
       </c>
       <c r="H34">
-        <v>13.739</v>
+        <v>13.739000000000001</v>
       </c>
       <c r="I34">
         <v>14.949</v>
       </c>
       <c r="J34">
-        <v>14.431</v>
+        <v>14.430999999999999</v>
       </c>
       <c r="K34">
-        <v>14.415</v>
+        <v>14.414999999999999</v>
       </c>
       <c r="L34">
-        <v>11.922</v>
+        <v>11.922000000000001</v>
       </c>
       <c r="M34">
-        <v>6.943</v>
+        <v>6.9429999999999996</v>
       </c>
       <c r="O34">
-        <v>9.164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>9.1639999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2011</v>
       </c>
@@ -7502,13 +7569,13 @@
         <v>1.857</v>
       </c>
       <c r="D35">
-        <v>2.255</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="E35">
-        <v>4.392</v>
+        <v>4.3920000000000003</v>
       </c>
       <c r="F35">
-        <v>7.848</v>
+        <v>7.8479999999999999</v>
       </c>
       <c r="G35">
         <v>10.544</v>
@@ -7523,33 +7590,33 @@
         <v>14.567</v>
       </c>
       <c r="K35">
-        <v>14.226</v>
+        <v>14.226000000000001</v>
       </c>
       <c r="L35">
-        <v>11.767</v>
+        <v>11.766999999999999</v>
       </c>
       <c r="M35">
-        <v>7.403</v>
+        <v>7.4029999999999996</v>
       </c>
       <c r="O35">
-        <v>8.728999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>8.7289999999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2012</v>
       </c>
       <c r="B36">
-        <v>3.713</v>
+        <v>3.7130000000000001</v>
       </c>
       <c r="C36">
-        <v>2.191</v>
+        <v>2.1909999999999998</v>
       </c>
       <c r="D36">
-        <v>2.909</v>
+        <v>2.9089999999999998</v>
       </c>
       <c r="E36">
-        <v>5.551</v>
+        <v>5.5510000000000002</v>
       </c>
       <c r="F36">
         <v>8.15</v>
@@ -7561,48 +7628,48 @@
         <v>13.305</v>
       </c>
       <c r="I36">
-        <v>14.556</v>
+        <v>14.555999999999999</v>
       </c>
       <c r="J36">
         <v>15.407</v>
       </c>
       <c r="K36">
-        <v>14.451</v>
+        <v>14.451000000000001</v>
       </c>
       <c r="L36">
         <v>12.07</v>
       </c>
       <c r="M36">
-        <v>7.377</v>
+        <v>7.3769999999999998</v>
       </c>
       <c r="O36">
-        <v>9.225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>9.2249999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
       <c r="B37">
-        <v>3.943</v>
+        <v>3.9430000000000001</v>
       </c>
       <c r="C37">
-        <v>2.579</v>
+        <v>2.5790000000000002</v>
       </c>
       <c r="D37">
         <v>3.488</v>
       </c>
       <c r="E37">
-        <v>5.753</v>
+        <v>5.7530000000000001</v>
       </c>
       <c r="F37">
-        <v>8.486000000000001</v>
+        <v>8.4860000000000007</v>
       </c>
       <c r="G37">
-        <v>11.267</v>
+        <v>11.266999999999999</v>
       </c>
       <c r="H37">
-        <v>13.732</v>
+        <v>13.731999999999999</v>
       </c>
       <c r="I37">
         <v>15.132</v>
@@ -7617,36 +7684,36 @@
         <v>12.769</v>
       </c>
       <c r="M37">
-        <v>8.343999999999999</v>
+        <v>8.3439999999999994</v>
       </c>
       <c r="O37">
-        <v>9.699</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>9.6989999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
       <c r="B38">
-        <v>4.377</v>
+        <v>4.3769999999999998</v>
       </c>
       <c r="C38">
-        <v>2.651</v>
+        <v>2.6509999999999998</v>
       </c>
       <c r="D38">
         <v>3.32</v>
       </c>
       <c r="E38">
-        <v>6.408</v>
+        <v>6.4080000000000004</v>
       </c>
       <c r="F38">
-        <v>9.029</v>
+        <v>9.0289999999999999</v>
       </c>
       <c r="G38">
         <v>12.057</v>
       </c>
       <c r="H38">
-        <v>13.954</v>
+        <v>13.954000000000001</v>
       </c>
       <c r="I38">
         <v>15.1</v>
@@ -7661,21 +7728,21 @@
         <v>12.262</v>
       </c>
       <c r="M38">
-        <v>8.206</v>
+        <v>8.2059999999999995</v>
       </c>
       <c r="O38">
-        <v>9.868</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>9.8680000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
       <c r="B39">
-        <v>4.336</v>
+        <v>4.3360000000000003</v>
       </c>
       <c r="C39">
-        <v>2.539</v>
+        <v>2.5390000000000001</v>
       </c>
       <c r="D39">
         <v>3.448</v>
@@ -7684,19 +7751,19 @@
         <v>6.37</v>
       </c>
       <c r="F39">
-        <v>9.209</v>
+        <v>9.2089999999999996</v>
       </c>
       <c r="G39">
-        <v>11.479</v>
+        <v>11.478999999999999</v>
       </c>
       <c r="H39">
-        <v>13.451</v>
+        <v>13.451000000000001</v>
       </c>
       <c r="I39">
-        <v>14.021</v>
+        <v>14.021000000000001</v>
       </c>
       <c r="J39">
-        <v>14.453</v>
+        <v>14.452999999999999</v>
       </c>
       <c r="K39">
         <v>14.362</v>
@@ -7705,18 +7772,18 @@
         <v>11.897</v>
       </c>
       <c r="M39">
-        <v>7.091</v>
+        <v>7.0910000000000002</v>
       </c>
       <c r="O39">
-        <v>9.426</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>9.4260000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
       <c r="B40">
-        <v>3.027</v>
+        <v>3.0270000000000001</v>
       </c>
       <c r="C40">
         <v>1.855</v>
@@ -7725,19 +7792,19 @@
         <v>2.774</v>
       </c>
       <c r="E40">
-        <v>5.377</v>
+        <v>5.3769999999999998</v>
       </c>
       <c r="F40">
-        <v>7.913</v>
+        <v>7.9130000000000003</v>
       </c>
       <c r="G40">
-        <v>10.607</v>
+        <v>10.606999999999999</v>
       </c>
       <c r="H40">
         <v>12.548</v>
       </c>
       <c r="I40">
-        <v>13.976</v>
+        <v>13.976000000000001</v>
       </c>
       <c r="J40">
         <v>13.859</v>
@@ -7746,21 +7813,21 @@
         <v>12.936</v>
       </c>
       <c r="L40">
-        <v>9.839</v>
+        <v>9.8390000000000004</v>
       </c>
       <c r="M40">
-        <v>5.514</v>
+        <v>5.5140000000000002</v>
       </c>
       <c r="O40">
-        <v>8.369999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2017</v>
       </c>
       <c r="B41">
-        <v>2.564</v>
+        <v>2.5640000000000001</v>
       </c>
       <c r="C41">
         <v>1.641</v>
@@ -7769,13 +7836,13 @@
         <v>1.833</v>
       </c>
       <c r="E41">
-        <v>3.925</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="F41">
-        <v>6.832</v>
+        <v>6.8319999999999999</v>
       </c>
       <c r="G41">
-        <v>9.797000000000001</v>
+        <v>9.7970000000000006</v>
       </c>
       <c r="H41">
         <v>12.282</v>
@@ -7784,45 +7851,45 @@
         <v>13.619</v>
       </c>
       <c r="J41">
-        <v>13.922</v>
+        <v>13.922000000000001</v>
       </c>
       <c r="K41">
-        <v>13.453</v>
+        <v>13.452999999999999</v>
       </c>
       <c r="L41">
         <v>10.907</v>
       </c>
       <c r="M41">
-        <v>6.232</v>
+        <v>6.2320000000000002</v>
       </c>
       <c r="O41">
-        <v>8.119999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2018</v>
       </c>
       <c r="B42">
-        <v>2.638</v>
+        <v>2.6379999999999999</v>
       </c>
       <c r="C42">
         <v>1.609</v>
       </c>
       <c r="D42">
-        <v>2.288</v>
+        <v>2.2879999999999998</v>
       </c>
       <c r="E42">
         <v>4.109</v>
       </c>
       <c r="F42">
-        <v>7.135</v>
+        <v>7.1349999999999998</v>
       </c>
       <c r="G42">
         <v>10.212</v>
       </c>
       <c r="H42">
-        <v>12.483</v>
+        <v>12.483000000000001</v>
       </c>
       <c r="I42">
         <v>13.943</v>
@@ -7834,16 +7901,16 @@
         <v>13.919</v>
       </c>
       <c r="L42">
-        <v>10.671</v>
+        <v>10.670999999999999</v>
       </c>
       <c r="M42">
-        <v>5.475</v>
+        <v>5.4749999999999996</v>
       </c>
       <c r="O42">
-        <v>8.252000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>8.2520000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2019</v>
       </c>
@@ -7851,13 +7918,13 @@
         <v>2.62</v>
       </c>
       <c r="C43">
-        <v>1.801</v>
+        <v>1.8009999999999999</v>
       </c>
       <c r="D43">
-        <v>2.087</v>
+        <v>2.0870000000000002</v>
       </c>
       <c r="O43" s="2">
-        <v>2.182</v>
+        <v>2.1819999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7866,126 +7933,126 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
